--- a/100runs/run004/NotionalETEOutput004.xlsx
+++ b/100runs/run004/NotionalETEOutput004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,19 +49,31 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
+  </si>
+  <si>
+    <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_176.MISSILE_HELLMASKER_176</t>
+    <t>MISSILE_BRAVER_59.MISSILE_BRAVER_59</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_209.MISSILE_SOMERSAULT_209</t>
+    <t>MISSILE_HIGHWIND_382.MISSILE_HIGHWIND_382</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER</t>
+    <t>MISSILE_SOMERSAULT_225.MISSILE_SOMERSAULT_225</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_326.MISSILE_BRAVER_326</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
@@ -422,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,31 +483,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>145.0768386269494</v>
+        <v>1116578.940180537</v>
       </c>
       <c r="G2">
-        <v>-111.0483761666636</v>
+        <v>4841120.999739773</v>
       </c>
       <c r="H2">
-        <v>1074.28095772657</v>
+        <v>3985229.597705439</v>
       </c>
       <c r="I2">
-        <v>-1671.377617942703</v>
+        <v>1114860.99536459</v>
       </c>
       <c r="J2">
-        <v>2486.128599444622</v>
+        <v>4843228.276873548</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984363.468946907</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,31 +518,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>145.0768386269494</v>
+        <v>1116578.940180537</v>
       </c>
       <c r="G3">
-        <v>-111.0483761666636</v>
+        <v>4841120.999739773</v>
       </c>
       <c r="H3">
-        <v>1074.28095772657</v>
+        <v>3985229.597705439</v>
       </c>
       <c r="I3">
-        <v>-1638.38017332496</v>
+        <v>1114890.609351436</v>
       </c>
       <c r="J3">
-        <v>2425.651546984538</v>
+        <v>4843179.625235064</v>
       </c>
       <c r="K3">
-        <v>221.8690506994785</v>
+        <v>3984667.264416422</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,31 +553,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>145.0768386269494</v>
+        <v>1116578.940180537</v>
       </c>
       <c r="G4">
-        <v>-111.0483761666636</v>
+        <v>4841120.999739773</v>
       </c>
       <c r="H4">
-        <v>1074.28095772657</v>
+        <v>3985229.597705439</v>
       </c>
       <c r="I4">
-        <v>-1604.570196990599</v>
+        <v>1114920.952555464</v>
       </c>
       <c r="J4">
-        <v>2365.174494524454</v>
+        <v>4843130.973596578</v>
       </c>
       <c r="K4">
-        <v>432.6746935198633</v>
+        <v>3984955.911251279</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,31 +588,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>145.0768386269494</v>
+        <v>1116578.940180537</v>
       </c>
       <c r="G5">
-        <v>-111.0483761666636</v>
+        <v>4841120.999739773</v>
       </c>
       <c r="H5">
-        <v>1074.28095772657</v>
+        <v>3985229.597705439</v>
       </c>
       <c r="I5">
-        <v>-1569.927681093611</v>
+        <v>1114952.042932977</v>
       </c>
       <c r="J5">
-        <v>2304.69744206437</v>
+        <v>4843082.321958094</v>
       </c>
       <c r="K5">
-        <v>632.4169284611556</v>
+        <v>3985229.409451477</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,31 +623,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>145.0768386269494</v>
+        <v>1116578.940180537</v>
       </c>
       <c r="G6">
-        <v>-111.0483761666636</v>
+        <v>4841120.999739773</v>
       </c>
       <c r="H6">
-        <v>1074.28095772657</v>
+        <v>3985229.597705439</v>
       </c>
       <c r="I6">
-        <v>-1534.432125113191</v>
+        <v>1114983.898882432</v>
       </c>
       <c r="J6">
-        <v>2244.220389604286</v>
+        <v>4843033.67031961</v>
       </c>
       <c r="K6">
-        <v>821.0957555233545</v>
+        <v>3985487.759017017</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,31 +658,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>145.0768386269494</v>
+        <v>1116578.940180537</v>
       </c>
       <c r="G7">
-        <v>-111.0483761666636</v>
+        <v>4841120.999739773</v>
       </c>
       <c r="H7">
-        <v>1074.28095772657</v>
+        <v>3985229.597705439</v>
       </c>
       <c r="I7">
-        <v>-1498.062523722064</v>
+        <v>1115016.539255336</v>
       </c>
       <c r="J7">
-        <v>2183.743337144202</v>
+        <v>4842985.018681126</v>
       </c>
       <c r="K7">
-        <v>998.7111747064612</v>
+        <v>3985730.959947898</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,31 +693,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>145.0768386269494</v>
+        <v>1116578.940180537</v>
       </c>
       <c r="G8">
-        <v>-111.0483761666636</v>
+        <v>4841120.999739773</v>
       </c>
       <c r="H8">
-        <v>1074.28095772657</v>
+        <v>3985229.597705439</v>
       </c>
       <c r="I8">
-        <v>-1460.797354356102</v>
+        <v>1115049.983367395</v>
       </c>
       <c r="J8">
-        <v>2123.266284684118</v>
+        <v>4842936.36704264</v>
       </c>
       <c r="K8">
-        <v>1165.263186010475</v>
+        <v>3985959.012244121</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,31 +728,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>145.0768386269494</v>
+        <v>1116578.940180537</v>
       </c>
       <c r="G9">
-        <v>-111.0483761666636</v>
+        <v>4841120.999739773</v>
       </c>
       <c r="H9">
-        <v>1074.28095772657</v>
+        <v>3985229.597705439</v>
       </c>
       <c r="I9">
-        <v>-1422.61456447783</v>
+        <v>1115084.251009944</v>
       </c>
       <c r="J9">
-        <v>2062.789232224034</v>
+        <v>4842887.715404157</v>
       </c>
       <c r="K9">
-        <v>1320.751789435395</v>
+        <v>3986171.915905685</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,31 +763,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>145.0768386269494</v>
+        <v>1116578.940180537</v>
       </c>
       <c r="G10">
-        <v>-92.71116345540351</v>
+        <v>4841137.512546828</v>
       </c>
       <c r="H10">
-        <v>1074.28095772657</v>
+        <v>3985229.597705439</v>
       </c>
       <c r="I10">
-        <v>-1383.491558526328</v>
+        <v>1115119.362461666</v>
       </c>
       <c r="J10">
-        <v>2002.31217976395</v>
+        <v>4842839.063765672</v>
       </c>
       <c r="K10">
-        <v>1465.176984981222</v>
+        <v>3986369.670932591</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,31 +798,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>112.5965509247397</v>
+        <v>1116530.259597744</v>
       </c>
       <c r="G11">
-        <v>-74.37395074414341</v>
+        <v>4841154.025353882</v>
       </c>
       <c r="H11">
-        <v>1323.506911022608</v>
+        <v>3985428.852175679</v>
       </c>
       <c r="I11">
-        <v>-1343.405184545775</v>
+        <v>1115155.338500585</v>
       </c>
       <c r="J11">
-        <v>1941.835127303866</v>
+        <v>4842790.412127187</v>
       </c>
       <c r="K11">
-        <v>1598.538772647956</v>
+        <v>3986552.277324839</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,31 +833,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>93.51601128681209</v>
+        <v>1116501.662197435</v>
       </c>
       <c r="G12">
-        <v>-56.03673803288333</v>
+        <v>4841170.538160939</v>
       </c>
       <c r="H12">
-        <v>1471.958634704867</v>
+        <v>3985547.538328414</v>
       </c>
       <c r="I12">
-        <v>-1302.33172048474</v>
+        <v>1115192.200416364</v>
       </c>
       <c r="J12">
-        <v>1881.358074843781</v>
+        <v>4842741.760488703</v>
       </c>
       <c r="K12">
-        <v>1720.837152435598</v>
+        <v>3986719.735082428</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,31 +868,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>81.47097484814016</v>
+        <v>1116483.609420348</v>
       </c>
       <c r="G13">
-        <v>-37.69952532162323</v>
+        <v>4841187.050967994</v>
       </c>
       <c r="H13">
-        <v>1578.047048152146</v>
+        <v>3985632.355300084</v>
       </c>
       <c r="I13">
-        <v>-1260.246860158094</v>
+        <v>1115229.970022908</v>
       </c>
       <c r="J13">
-        <v>1820.881022383697</v>
+        <v>4842693.108850218</v>
       </c>
       <c r="K13">
-        <v>1832.072124344147</v>
+        <v>3986872.044205358</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,31 +903,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>73.07081532948369</v>
+        <v>1116471.019486888</v>
       </c>
       <c r="G14">
-        <v>-19.36231261036313</v>
+        <v>4841203.563775049</v>
       </c>
       <c r="H14">
-        <v>1660.658038866633</v>
+        <v>3985698.402230482</v>
       </c>
       <c r="I14">
-        <v>-1217.125698863268</v>
+        <v>1115268.669671265</v>
       </c>
       <c r="J14">
-        <v>1760.403969923613</v>
+        <v>4842644.457211734</v>
       </c>
       <c r="K14">
-        <v>1932.243688373602</v>
+        <v>3987009.20469363</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>66.80404477249019</v>
+        <v>1116461.627019502</v>
       </c>
       <c r="G15">
-        <v>-1.025099899103046</v>
+        <v>4841220.076582105</v>
       </c>
       <c r="H15">
-        <v>1728.322848154328</v>
+        <v>3985752.499789545</v>
       </c>
       <c r="I15">
-        <v>-1172.942718642297</v>
+        <v>1115308.322262859</v>
       </c>
       <c r="J15">
-        <v>1699.926917463529</v>
+        <v>4842595.80557325</v>
       </c>
       <c r="K15">
-        <v>2021.351844523964</v>
+        <v>3987131.216547244</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,31 +973,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>61.90430532548479</v>
+        <v>1116454.283421625</v>
       </c>
       <c r="G16">
-        <v>17.31211281215705</v>
+        <v>4841236.589389159</v>
       </c>
       <c r="H16">
-        <v>1785.630002329324</v>
+        <v>3985798.316473141</v>
       </c>
       <c r="I16">
-        <v>-1127.671773180981</v>
+        <v>1115348.951263043</v>
       </c>
       <c r="J16">
-        <v>1639.449865003445</v>
+        <v>4842547.153934765</v>
       </c>
       <c r="K16">
-        <v>2099.396592795234</v>
+        <v>3987238.079766199</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,31 +1008,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>57.94005935113007</v>
+        <v>1116448.341916238</v>
       </c>
       <c r="G17">
-        <v>35.64932552341715</v>
+        <v>4841253.102196215</v>
       </c>
       <c r="H17">
-        <v>1835.333521387908</v>
+        <v>3985838.054101699</v>
       </c>
       <c r="I17">
-        <v>-1081.286072336187</v>
+        <v>1115390.580714977</v>
       </c>
       <c r="J17">
-        <v>1578.972812543361</v>
+        <v>4842498.50229628</v>
       </c>
       <c r="K17">
-        <v>2166.37793318741</v>
+        <v>3987329.794350495</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,31 +1043,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>54.6483226524429</v>
+        <v>1116443.408349689</v>
       </c>
       <c r="G18">
-        <v>53.98653823467723</v>
+        <v>4841269.615003271</v>
       </c>
       <c r="H18">
-        <v>1879.216810369601</v>
+        <v>3985873.13849553</v>
       </c>
       <c r="I18">
-        <v>-1033.758166282151</v>
+        <v>1115433.235253867</v>
       </c>
       <c r="J18">
-        <v>1518.495760083277</v>
+        <v>4842449.850657796</v>
       </c>
       <c r="K18">
-        <v>2222.295865700494</v>
+        <v>3987406.360300133</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,31 +1078,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>51.85882347271863</v>
+        <v>1116439.227523244</v>
       </c>
       <c r="G19">
-        <v>72.32375094593735</v>
+        <v>4841286.127810325</v>
       </c>
       <c r="H19">
-        <v>1918.501184593254</v>
+        <v>3985904.546088003</v>
       </c>
       <c r="I19">
-        <v>-985.0599292664069</v>
+        <v>1115476.940121536</v>
       </c>
       <c r="J19">
-        <v>1458.018707623193</v>
+        <v>4842401.199019312</v>
       </c>
       <c r="K19">
-        <v>2267.150390334485</v>
+        <v>3987467.777615113</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,31 +1113,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>49.45594207394793</v>
+        <v>1116435.626149144</v>
       </c>
       <c r="G20">
-        <v>90.66096365719743</v>
+        <v>4841302.640617381</v>
       </c>
       <c r="H20">
-        <v>1954.059782508913</v>
+        <v>3985932.974947423</v>
       </c>
       <c r="I20">
-        <v>-935.1625429657064</v>
+        <v>1115521.721181364</v>
       </c>
       <c r="J20">
-        <v>1397.541655163109</v>
+        <v>4842352.547380826</v>
       </c>
       <c r="K20">
-        <v>2300.941507089382</v>
+        <v>3987514.046295435</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,31 +1148,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>47.35810245177169</v>
+        <v>1116432.481963466</v>
       </c>
       <c r="G21">
-        <v>108.9981763684575</v>
+        <v>4841319.153424437</v>
       </c>
       <c r="H21">
-        <v>1986.538501547737</v>
+        <v>3985958.941464435</v>
       </c>
       <c r="I21">
-        <v>-884.036479432105</v>
+        <v>1115567.604933592</v>
       </c>
       <c r="J21">
-        <v>1337.064602703025</v>
+        <v>4842303.895742343</v>
       </c>
       <c r="K21">
-        <v>2323.669215965187</v>
+        <v>3987545.166341098</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,31 +1183,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>45.50590834188075</v>
+        <v>1116429.705944684</v>
       </c>
       <c r="G22">
-        <v>127.3353890797176</v>
+        <v>4841335.666231492</v>
       </c>
       <c r="H22">
-        <v>2016.428596497284</v>
+        <v>3985982.838393931</v>
       </c>
       <c r="I22">
-        <v>-831.6514836191044</v>
+        <v>1115614.618531006</v>
       </c>
       <c r="J22">
-        <v>1276.587550242941</v>
+        <v>4842255.244103858</v>
       </c>
       <c r="K22">
-        <v>2335.333516961899</v>
+        <v>3987561.137752102</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,31 +1218,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>43.85496081990301</v>
+        <v>1116427.231548882</v>
       </c>
       <c r="G23">
-        <v>145.6726017909777</v>
+        <v>4841352.179038547</v>
       </c>
       <c r="H23">
-        <v>2044.112418168475</v>
+        <v>3986004.971422809</v>
       </c>
       <c r="I23">
-        <v>-777.9765554775209</v>
+        <v>1115662.789795005</v>
       </c>
       <c r="J23">
-        <v>1216.110497782856</v>
+        <v>4842206.592465374</v>
       </c>
       <c r="K23">
-        <v>2335.934410079517</v>
+        <v>3987561.960528448</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,31 +1253,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>42.37132373891595</v>
+        <v>1116425.007913476</v>
       </c>
       <c r="G24">
-        <v>164.0098145022378</v>
+        <v>4841368.691845603</v>
       </c>
       <c r="H24">
-        <v>2069.893400036107</v>
+        <v>3986025.583144086</v>
       </c>
       <c r="I24">
-        <v>-722.9799316104799</v>
+        <v>1115712.147232062</v>
       </c>
       <c r="J24">
-        <v>1155.633445322772</v>
+        <v>4842157.940826889</v>
       </c>
       <c r="K24">
-        <v>2325.471895318043</v>
+        <v>3987547.634670135</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,31 +1288,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>41.02855735347661</v>
+        <v>1116422.995411284</v>
       </c>
       <c r="G25">
-        <v>182.3470272134979</v>
+        <v>4841385.204652658</v>
       </c>
       <c r="H25">
-        <v>2094.016385281896</v>
+        <v>3986044.869308236</v>
       </c>
       <c r="I25">
-        <v>-666.6290664766785</v>
+        <v>1115762.7200506</v>
       </c>
       <c r="J25">
-        <v>1095.156392862688</v>
+        <v>4842109.289188405</v>
       </c>
       <c r="K25">
-        <v>2303.945972677476</v>
+        <v>3987518.160177164</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,31 +1323,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>39.80571783619062</v>
+        <v>1116421.16265226</v>
       </c>
       <c r="G26">
-        <v>200.684239924758</v>
+        <v>4841401.717459713</v>
       </c>
       <c r="H26">
-        <v>2116.68180326942</v>
+        <v>3986062.990157185</v>
       </c>
       <c r="I26">
-        <v>-608.8906131308029</v>
+        <v>1115814.538178268</v>
       </c>
       <c r="J26">
-        <v>1034.679340402604</v>
+        <v>4842060.63754992</v>
       </c>
       <c r="K26">
-        <v>2271.356642157816</v>
+        <v>3987473.537049534</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,31 +1358,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>38.68597213533943</v>
+        <v>1116419.48440748</v>
       </c>
       <c r="G27">
-        <v>219.0214526360181</v>
+        <v>4841418.230266768</v>
       </c>
       <c r="H27">
-        <v>2138.055801831604</v>
+        <v>3986080.078525006</v>
       </c>
       <c r="I27">
-        <v>-549.7304034896883</v>
+        <v>1115867.632279658</v>
       </c>
       <c r="J27">
-        <v>974.2022879425199</v>
+        <v>4842011.985911435</v>
       </c>
       <c r="K27">
-        <v>2227.703903759063</v>
+        <v>3987413.765287246</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,31 +1393,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>37.65561652429444</v>
+        <v>1116417.940138166</v>
       </c>
       <c r="G28">
-        <v>237.3586653472782</v>
+        <v>4841434.743073824</v>
       </c>
       <c r="H28">
-        <v>2158.277645404478</v>
+        <v>3986096.245752676</v>
       </c>
       <c r="I28">
-        <v>-489.1134281125564</v>
+        <v>1115922.033774449</v>
       </c>
       <c r="J28">
-        <v>913.725235482436</v>
+        <v>4841963.334272951</v>
       </c>
       <c r="K28">
-        <v>2172.987757481217</v>
+        <v>3987338.8448903</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,31 +1428,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>36.70336690182006</v>
+        <v>1116416.512932008</v>
       </c>
       <c r="G29">
-        <v>255.6958780585383</v>
+        <v>4841451.255880879</v>
       </c>
       <c r="H29">
-        <v>2177.465219213372</v>
+        <v>3986111.586088641</v>
       </c>
       <c r="I29">
-        <v>-427.0038154833567</v>
+        <v>1115977.774856001</v>
       </c>
       <c r="J29">
-        <v>853.2481830223518</v>
+        <v>4841914.682634466</v>
       </c>
       <c r="K29">
-        <v>2107.208203324277</v>
+        <v>3987248.775858695</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,31 +1463,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>35.81983624184679</v>
+        <v>1116415.188719987</v>
       </c>
       <c r="G30">
-        <v>274.0330907697984</v>
+        <v>4841467.768687935</v>
       </c>
       <c r="H30">
-        <v>2195.719193109614</v>
+        <v>3986126.180017765</v>
       </c>
       <c r="I30">
-        <v>-363.364810782959</v>
+        <v>1116034.888510405</v>
       </c>
       <c r="J30">
-        <v>792.7711305622676</v>
+        <v>4841866.030995983</v>
       </c>
       <c r="K30">
-        <v>2030.365241288245</v>
+        <v>3987143.558192432</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,31 +1498,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>34.99714357279748</v>
+        <v>1116413.955690312</v>
       </c>
       <c r="G31">
-        <v>292.3703034810585</v>
+        <v>4841484.28149499</v>
       </c>
       <c r="H31">
-        <v>2213.126218608258</v>
+        <v>3986140.096817353</v>
       </c>
       <c r="I31">
-        <v>-298.158754138625</v>
+        <v>1116093.408536005</v>
       </c>
       <c r="J31">
-        <v>732.2940781021837</v>
+        <v>4841817.379357497</v>
       </c>
       <c r="K31">
-        <v>1942.45887137312</v>
+        <v>3987023.19189151</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,31 +1533,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>34.22861709453639</v>
+        <v>1116412.803843469</v>
       </c>
       <c r="G32">
-        <v>310.7075161923186</v>
+        <v>4841500.794302045</v>
       </c>
       <c r="H32">
-        <v>2229.761416591321</v>
+        <v>3986153.396546044</v>
       </c>
       <c r="I32">
-        <v>-231.3470583378965</v>
+        <v>1116153.369563398</v>
       </c>
       <c r="J32">
-        <v>671.8170256420995</v>
+        <v>4841768.727719013</v>
       </c>
       <c r="K32">
-        <v>1843.489093578902</v>
+        <v>3986887.676955929</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,31 +1568,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>33.50856578590675</v>
+        <v>1116411.724649908</v>
       </c>
       <c r="G33">
-        <v>329.0447289035786</v>
+        <v>4841517.307109101</v>
       </c>
       <c r="H33">
-        <v>2245.690336537305</v>
+        <v>3986166.131610203</v>
       </c>
       <c r="I33">
-        <v>-162.8901859937077</v>
+        <v>1116214.807075928</v>
       </c>
       <c r="J33">
-        <v>611.3399731820156</v>
+        <v>4841720.076080529</v>
       </c>
       <c r="K33">
-        <v>1733.455907905591</v>
+        <v>3986737.013385691</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,31 +1603,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>32.83210158988044</v>
+        <v>1116410.710783541</v>
       </c>
       <c r="G34">
-        <v>347.3819416148388</v>
+        <v>4841533.819916156</v>
       </c>
       <c r="H34">
-        <v>2260.970516523473</v>
+        <v>3986178.348011136</v>
       </c>
       <c r="I34">
-        <v>-92.74762614721085</v>
+        <v>1116277.757430682</v>
       </c>
       <c r="J34">
-        <v>550.8629207219313</v>
+        <v>4841671.424442044</v>
       </c>
       <c r="K34">
-        <v>1612.359314353187</v>
+        <v>3986571.201180793</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,31 +1638,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>32.19499945755452</v>
+        <v>1116409.755911977</v>
       </c>
       <c r="G35">
-        <v>365.7191543260989</v>
+        <v>4841550.332723211</v>
       </c>
       <c r="H35">
-        <v>2275.6527378097</v>
+        <v>3986190.086348117</v>
       </c>
       <c r="I35">
-        <v>-20.87787029446619</v>
+        <v>1116342.257880009</v>
       </c>
       <c r="J35">
-        <v>490.3858682618472</v>
+        <v>4841622.772803559</v>
       </c>
       <c r="K35">
-        <v>1480.19931292169</v>
+        <v>3986390.240341238</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,31 +1673,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>31.59358608370353</v>
+        <v>1116408.854529766</v>
       </c>
       <c r="G36">
-        <v>384.056367037359</v>
+        <v>4841566.845530267</v>
       </c>
       <c r="H36">
-        <v>2289.782043062355</v>
+        <v>3986201.382632456</v>
       </c>
       <c r="I36">
-        <v>52.76161217718952</v>
+        <v>1116408.346593561</v>
       </c>
       <c r="J36">
-        <v>429.9088158017633</v>
+        <v>4841574.121165075</v>
       </c>
       <c r="K36">
-        <v>1336.9759036111</v>
+        <v>3986194.130867023</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,31 +1708,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>31.02465063495248</v>
+        <v>1116408.001824597</v>
       </c>
       <c r="G37">
-        <v>402.3935797486191</v>
+        <v>4841583.358337322</v>
       </c>
       <c r="H37">
-        <v>2303.398569718977</v>
+        <v>3986212.268953762</v>
       </c>
       <c r="I37">
-        <v>128.214399157628</v>
+        <v>1116476.062680884</v>
       </c>
       <c r="J37">
-        <v>369.4317633416791</v>
+        <v>4841525.469526591</v>
       </c>
       <c r="K37">
-        <v>1182.689086421418</v>
+        <v>3985982.872758151</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,31 +1743,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>30.48537251311974</v>
+        <v>1116407.193569033</v>
       </c>
       <c r="G38">
-        <v>420.7307924598792</v>
+        <v>4841599.871144378</v>
       </c>
       <c r="H38">
-        <v>2316.538237360191</v>
+        <v>3986222.774029499</v>
       </c>
       <c r="I38">
-        <v>205.5251416021693</v>
+        <v>1116545.446214559</v>
       </c>
       <c r="J38">
-        <v>308.9547108815951</v>
+        <v>4841476.817888106</v>
       </c>
       <c r="K38">
-        <v>1017.338861352642</v>
+        <v>3985756.46601462</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,31 +1778,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>29.97326244204227</v>
+        <v>1116406.426032214</v>
       </c>
       <c r="G39">
-        <v>439.0680051711392</v>
+        <v>4841616.383951433</v>
       </c>
       <c r="H39">
-        <v>2329.233318743601</v>
+        <v>3986232.923661518</v>
       </c>
       <c r="I39">
-        <v>284.7395899548277</v>
+        <v>1116616.53825392</v>
       </c>
       <c r="J39">
-        <v>248.477658421511</v>
+        <v>4841428.166249622</v>
       </c>
       <c r="K39">
-        <v>840.9252284047728</v>
+        <v>3985514.91063643</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,31 +1813,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>29.48611406877976</v>
+        <v>1116405.695907317</v>
       </c>
       <c r="G40">
-        <v>457.4052178823993</v>
+        <v>4841632.896758488</v>
       </c>
       <c r="H40">
-        <v>2341.512917356396</v>
+        <v>3986242.741117863</v>
       </c>
       <c r="I40">
-        <v>365.9046212222149</v>
+        <v>1116689.380869346</v>
       </c>
       <c r="J40">
-        <v>188.0006059614268</v>
+        <v>4841379.514611137</v>
       </c>
       <c r="K40">
-        <v>653.4481875778109</v>
+        <v>3985258.206623582</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,31 +1848,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>29.02196393181182</v>
+        <v>1116405.000251558</v>
       </c>
       <c r="G41">
-        <v>475.7424305936594</v>
+        <v>4841649.409565544</v>
       </c>
       <c r="H41">
-        <v>2353.403369270004</v>
+        <v>3986252.247454043</v>
       </c>
       <c r="I41">
-        <v>449.0682667141006</v>
+        <v>1116764.017167163</v>
       </c>
       <c r="J41">
-        <v>127.5235535013429</v>
+        <v>4841330.862972653</v>
       </c>
       <c r="K41">
-        <v>454.9077388717565</v>
+        <v>3984986.353976076</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,31 +1883,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>28.57905813933328</v>
+        <v>1116404.336436253</v>
       </c>
       <c r="G42">
-        <v>494.0796433049195</v>
+        <v>4841665.922372599</v>
       </c>
       <c r="H42">
-        <v>2364.928583254317</v>
+        <v>3986261.461784961</v>
       </c>
       <c r="I42">
-        <v>534.2797404670748</v>
+        <v>1116840.49131515</v>
       </c>
       <c r="J42">
-        <v>67.04650104125865</v>
+        <v>4841282.211334169</v>
       </c>
       <c r="K42">
-        <v>245.3038822866085</v>
+        <v>3984699.35269391</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,31 +1918,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>28.15582446805056</v>
+        <v>1116403.702104994</v>
       </c>
       <c r="G43">
-        <v>512.4168560161796</v>
+        <v>4841682.435179655</v>
       </c>
       <c r="H43">
-        <v>2376.110330195815</v>
+        <v>3986270.401516292</v>
       </c>
       <c r="I43">
-        <v>621.589468368097</v>
+        <v>1116918.848568676</v>
       </c>
       <c r="J43">
-        <v>6.56944858117446</v>
+        <v>4841233.559695683</v>
       </c>
       <c r="K43">
-        <v>24.6366178223676</v>
+        <v>3984397.202777087</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,31 +1953,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>27.75084887057789</v>
+        <v>1116403.095138446</v>
       </c>
       <c r="G44">
-        <v>530.7540687274397</v>
+        <v>4841698.94798671</v>
       </c>
       <c r="H44">
-        <v>2386.968490625575</v>
+        <v>3986279.082542387</v>
       </c>
       <c r="I44">
-        <v>711.0491179952043</v>
+        <v>1116999.135297483</v>
       </c>
       <c r="J44">
-        <v>-53.90760387890946</v>
+        <v>4841184.908057199</v>
       </c>
       <c r="K44">
-        <v>-207.0940545209656</v>
+        <v>3984079.904225605</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,31 +1988,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>27.36285559136169</v>
+        <v>1116402.513624541</v>
       </c>
       <c r="G45">
-        <v>549.0912814386998</v>
+        <v>4841715.460793765</v>
       </c>
       <c r="H45">
-        <v>2397.52126742872</v>
+        <v>3986287.51941633</v>
       </c>
       <c r="I45">
-        <v>802.7116291930109</v>
+        <v>1117081.399013124</v>
       </c>
       <c r="J45">
-        <v>-114.3846563389937</v>
+        <v>4841136.256418715</v>
       </c>
       <c r="K45">
-        <v>-449.8881347433924</v>
+        <v>3983747.457039465</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,31 +2023,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>26.99069025400908</v>
+        <v>1116401.95583313</v>
       </c>
       <c r="G46">
-        <v>567.42849414996</v>
+        <v>4841731.97360082</v>
       </c>
       <c r="H46">
-        <v>2407.785369452135</v>
+        <v>3986295.725496734</v>
       </c>
       <c r="I46">
-        <v>896.6312454011002</v>
+        <v>1117165.688397082</v>
       </c>
       <c r="J46">
-        <v>-174.8617087990779</v>
+        <v>4841087.60478023</v>
       </c>
       <c r="K46">
-        <v>-703.7456228449128</v>
+        <v>3983399.861218666</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,31 +2058,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>26.63330540923718</v>
+        <v>1116401.420194324</v>
       </c>
       <c r="G47">
-        <v>585.76570686122</v>
+        <v>4841748.486407876</v>
       </c>
       <c r="H47">
-        <v>2417.776170661318</v>
+        <v>3986303.713074977</v>
       </c>
       <c r="I47">
-        <v>992.8635457538509</v>
+        <v>1117252.053329575</v>
       </c>
       <c r="J47">
-        <v>-235.3387612591621</v>
+        <v>4841038.953141745</v>
       </c>
       <c r="K47">
-        <v>-968.6665188255257</v>
+        <v>3983037.116763209</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,31 +2093,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>26.28974813134032</v>
+        <v>1116400.905279903</v>
       </c>
       <c r="G48">
-        <v>604.10291957248</v>
+        <v>4841764.999214931</v>
       </c>
       <c r="H48">
-        <v>2427.507848652546</v>
+        <v>3986311.493485953</v>
       </c>
       <c r="I48">
-        <v>1091.465477970695</v>
+        <v>1117340.544919076</v>
       </c>
       <c r="J48">
-        <v>-295.8158137192457</v>
+        <v>4840990.301503262</v>
       </c>
       <c r="K48">
-        <v>-1244.65082268523</v>
+        <v>3982659.223673093</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,31 +2128,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>25.95914932869595</v>
+        <v>1116400.409787298</v>
       </c>
       <c r="G49">
-        <v>622.4401322837402</v>
+        <v>4841781.512021986</v>
       </c>
       <c r="H49">
-        <v>2436.993505652697</v>
+        <v>3986319.077204805</v>
       </c>
       <c r="I49">
-        <v>1192.495392056265</v>
+        <v>1117431.215532558</v>
       </c>
       <c r="J49">
-        <v>-356.2928661793298</v>
+        <v>4840941.649864777</v>
       </c>
       <c r="K49">
-        <v>-1531.698534424028</v>
+        <v>3982266.181948319</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,31 +2163,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>25.64071449528916</v>
+        <v>1116399.932525723</v>
       </c>
       <c r="G50">
-        <v>640.7773449950002</v>
+        <v>4841798.024829042</v>
       </c>
       <c r="H50">
-        <v>2446.245274598293</v>
+        <v>3986326.473931734</v>
       </c>
       <c r="I50">
-        <v>1296.013074830375</v>
+        <v>1117524.118826481</v>
       </c>
       <c r="J50">
-        <v>-416.7699186394141</v>
+        <v>4840892.998226292</v>
       </c>
       <c r="K50">
-        <v>-1829.80965404192</v>
+        <v>3981857.991588886</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,31 +2198,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>25.33371567920624</v>
+        <v>1116399.472404143</v>
       </c>
       <c r="G51">
-        <v>659.1145577062604</v>
+        <v>4841814.537636098</v>
       </c>
       <c r="H51">
-        <v>2455.274412448621</v>
+        <v>3986333.692666602</v>
       </c>
       <c r="I51">
-        <v>1402.079785308276</v>
+        <v>1117619.309778548</v>
       </c>
       <c r="J51">
-        <v>-477.2469710994982</v>
+        <v>4840844.346587808</v>
       </c>
       <c r="K51">
-        <v>-2138.984181538905</v>
+        <v>3981434.652594795</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,31 +2233,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>25.03748448329761</v>
+        <v>1116399.028420783</v>
       </c>
       <c r="G52">
-        <v>677.4517704175205</v>
+        <v>4841831.050443152</v>
       </c>
       <c r="H52">
-        <v>2464.091382533237</v>
+        <v>3986340.741774771</v>
       </c>
       <c r="I52">
-        <v>1510.758290952112</v>
+        <v>1117716.844720235</v>
       </c>
       <c r="J52">
-        <v>-537.7240235595824</v>
+        <v>4840795.694949323</v>
       </c>
       <c r="K52">
-        <v>-2459.222116914983</v>
+        <v>3980996.164966045</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,31 +2268,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>24.75140594484455</v>
+        <v>1116398.599653954</v>
       </c>
       <c r="G53">
-        <v>695.7889831287806</v>
+        <v>4841847.563250208</v>
       </c>
       <c r="H53">
-        <v>2472.705927444746</v>
+        <v>3986347.629045378</v>
       </c>
       <c r="I53">
-        <v>1622.112904815032</v>
+        <v>1117816.781370131</v>
       </c>
       <c r="J53">
-        <v>-598.2010760196661</v>
+        <v>4840747.043310839</v>
       </c>
       <c r="K53">
-        <v>-2790.523460170151</v>
+        <v>3980542.528702637</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,31 +2303,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>24.47491316670145</v>
+        <v>1116398.185254005</v>
       </c>
       <c r="G54">
-        <v>714.1261958400406</v>
+        <v>4841864.076057264</v>
       </c>
       <c r="H54">
-        <v>2481.127133750337</v>
+        <v>3986354.361743073</v>
       </c>
       <c r="I54">
-        <v>1736.209523599963</v>
+        <v>1117919.178868091</v>
       </c>
       <c r="J54">
-        <v>-658.6781284797503</v>
+        <v>4840698.391672354</v>
       </c>
       <c r="K54">
-        <v>-3132.888211304415</v>
+        <v>3980073.743804571</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2326,31 +2338,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>106.3640137952032</v>
+        <v>1116578.885235732</v>
       </c>
       <c r="G55">
-        <v>-98.93801371253159</v>
+        <v>4841122.655217199</v>
       </c>
       <c r="H55">
-        <v>917.7650435422939</v>
+        <v>3985231.637881346</v>
       </c>
       <c r="I55">
-        <v>-1175.595823216144</v>
+        <v>1114863.500510503</v>
       </c>
       <c r="J55">
-        <v>1084.31096408467</v>
+        <v>4843225.489067286</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984373.20953327</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2361,31 +2373,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>106.3640137952032</v>
+        <v>1116578.885235732</v>
       </c>
       <c r="G56">
-        <v>-98.93801371253159</v>
+        <v>4841122.655217199</v>
       </c>
       <c r="H56">
-        <v>917.7650435422939</v>
+        <v>3985231.637881346</v>
       </c>
       <c r="I56">
-        <v>-1152.38643136299</v>
+        <v>1114893.114563893</v>
       </c>
       <c r="J56">
-        <v>1057.934238812839</v>
+        <v>4843176.837456807</v>
       </c>
       <c r="K56">
-        <v>293.4442925292021</v>
+        <v>3984677.005745476</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2396,31 +2408,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>106.3640137952032</v>
+        <v>1116578.885235732</v>
       </c>
       <c r="G57">
-        <v>-98.93801371253159</v>
+        <v>4841122.655217199</v>
       </c>
       <c r="H57">
-        <v>917.7650435422939</v>
+        <v>3985231.637881346</v>
       </c>
       <c r="I57">
-        <v>-1128.605529587701</v>
+        <v>1114923.457836104</v>
       </c>
       <c r="J57">
-        <v>1031.557513541008</v>
+        <v>4843128.185846326</v>
       </c>
       <c r="K57">
-        <v>572.2561075325502</v>
+        <v>3984965.653285988</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2431,31 +2443,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>106.3640137952032</v>
+        <v>1116578.885235732</v>
       </c>
       <c r="G58">
-        <v>-98.93801371253159</v>
+        <v>4841122.655217199</v>
       </c>
       <c r="H58">
-        <v>917.7650435422939</v>
+        <v>3985231.637881346</v>
       </c>
       <c r="I58">
-        <v>-1104.239044984223</v>
+        <v>1114954.548283478</v>
       </c>
       <c r="J58">
-        <v>1005.180788269177</v>
+        <v>4843079.534235846</v>
       </c>
       <c r="K58">
-        <v>836.4354450100462</v>
+        <v>3985239.152154808</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2466,31 +2478,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>106.3640137952032</v>
+        <v>1116578.885235732</v>
       </c>
       <c r="G59">
-        <v>-98.93801371253159</v>
+        <v>4841122.655217199</v>
       </c>
       <c r="H59">
-        <v>917.7650435422939</v>
+        <v>3985231.637881346</v>
       </c>
       <c r="I59">
-        <v>-1079.272558114141</v>
+        <v>1114986.404304515</v>
       </c>
       <c r="J59">
-        <v>978.804062997346</v>
+        <v>4843030.882625366</v>
       </c>
       <c r="K59">
-        <v>1085.982304961688</v>
+        <v>3985497.502351936</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2501,31 +2513,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>106.3640137952032</v>
+        <v>1116578.885235732</v>
       </c>
       <c r="G60">
-        <v>-98.93801371253159</v>
+        <v>4841122.655217199</v>
       </c>
       <c r="H60">
-        <v>917.7650435422939</v>
+        <v>3985231.637881346</v>
       </c>
       <c r="I60">
-        <v>-1053.691294473628</v>
+        <v>1115019.044750764</v>
       </c>
       <c r="J60">
-        <v>952.4273377255149</v>
+        <v>4842982.231014886</v>
       </c>
       <c r="K60">
-        <v>1320.896687387479</v>
+        <v>3985740.703877372</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2536,31 +2548,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>106.3640137952032</v>
+        <v>1116578.885235732</v>
       </c>
       <c r="G61">
-        <v>-98.93801371253159</v>
+        <v>4841122.655217199</v>
       </c>
       <c r="H61">
-        <v>917.7650435422939</v>
+        <v>3985231.637881346</v>
       </c>
       <c r="I61">
-        <v>-1027.480115750299</v>
+        <v>1115052.488937973</v>
       </c>
       <c r="J61">
-        <v>926.0506124536837</v>
+        <v>4842933.579404405</v>
       </c>
       <c r="K61">
-        <v>1541.178592287416</v>
+        <v>3985968.756731115</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2571,31 +2583,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>106.3640137952032</v>
+        <v>1116578.885235732</v>
       </c>
       <c r="G62">
-        <v>-98.93801371253159</v>
+        <v>4841122.655217199</v>
       </c>
       <c r="H62">
-        <v>917.7650435422939</v>
+        <v>3985231.637881346</v>
       </c>
       <c r="I62">
-        <v>-1000.623510864751</v>
+        <v>1115086.756657523</v>
       </c>
       <c r="J62">
-        <v>899.6738871818526</v>
+        <v>4842884.927793926</v>
       </c>
       <c r="K62">
-        <v>1746.828019661501</v>
+        <v>3986181.660913166</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2606,31 +2618,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>106.3640137952032</v>
+        <v>1116578.885235732</v>
       </c>
       <c r="G63">
-        <v>-82.60056272672516</v>
+        <v>4841139.168029901</v>
       </c>
       <c r="H63">
-        <v>917.7650435422939</v>
+        <v>3985231.637881346</v>
       </c>
       <c r="I63">
-        <v>-973.1055867915189</v>
+        <v>1115121.868188142</v>
       </c>
       <c r="J63">
-        <v>873.2971619100216</v>
+        <v>4842836.276183445</v>
       </c>
       <c r="K63">
-        <v>1937.844969509732</v>
+        <v>3986379.416423523</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2641,31 +2653,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>82.55088275425534</v>
+        <v>1116530.204655335</v>
       </c>
       <c r="G64">
-        <v>-66.26311174091875</v>
+        <v>4841155.680842603</v>
       </c>
       <c r="H64">
-        <v>1130.680357951902</v>
+        <v>3985430.892453591</v>
       </c>
       <c r="I64">
-        <v>-944.9100591540097</v>
+        <v>1115157.844307901</v>
       </c>
       <c r="J64">
-        <v>846.9204366381906</v>
+        <v>4842787.624572965</v>
       </c>
       <c r="K64">
-        <v>2114.229441832109</v>
+        <v>3986562.02326219</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2676,31 +2688,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>68.56186286330589</v>
+        <v>1116501.607256433</v>
       </c>
       <c r="G65">
-        <v>-49.92566075511235</v>
+        <v>4841172.193655305</v>
       </c>
       <c r="H65">
-        <v>1257.503608116832</v>
+        <v>3985549.578667086</v>
       </c>
       <c r="I65">
-        <v>-916.0202425878367</v>
+        <v>1115194.706306511</v>
       </c>
       <c r="J65">
-        <v>820.5437113663595</v>
+        <v>4842738.972962485</v>
       </c>
       <c r="K65">
-        <v>2275.981436628635</v>
+        <v>3986729.481429163</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2711,31 +2723,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>59.73096722171421</v>
+        <v>1116483.554480235</v>
       </c>
       <c r="G66">
-        <v>-33.58820976930593</v>
+        <v>4841188.706468008</v>
       </c>
       <c r="H66">
-        <v>1348.135613353917</v>
+        <v>3985634.395682176</v>
       </c>
       <c r="I66">
-        <v>-886.4190408668651</v>
+        <v>1115232.475997924</v>
       </c>
       <c r="J66">
-        <v>794.1669860945284</v>
+        <v>4842690.321352005</v>
       </c>
       <c r="K66">
-        <v>2423.100953899308</v>
+        <v>3986881.790924444</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2746,31 +2758,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>53.57233644797806</v>
+        <v>1116470.964547395</v>
       </c>
       <c r="G67">
-        <v>-17.25075878349951</v>
+        <v>4841205.219280709</v>
       </c>
       <c r="H67">
-        <v>1418.710707275902</v>
+        <v>3985700.442646386</v>
       </c>
       <c r="I67">
-        <v>-856.0889367861213</v>
+        <v>1115271.175733241</v>
       </c>
       <c r="J67">
-        <v>767.7902608226973</v>
+        <v>4842641.669741524</v>
       </c>
       <c r="K67">
-        <v>2555.587993644128</v>
+        <v>3987018.951748033</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2781,31 +2793,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>48.97781346082213</v>
+        <v>1116461.57208047</v>
       </c>
       <c r="G68">
-        <v>-0.9133077976931129</v>
+        <v>4841221.732093411</v>
       </c>
       <c r="H68">
-        <v>1476.517183501285</v>
+        <v>3985754.540233143</v>
       </c>
       <c r="I68">
-        <v>-825.0119817955733</v>
+        <v>1115310.828413937</v>
       </c>
       <c r="J68">
-        <v>741.4135355508663</v>
+        <v>4842593.018131045</v>
       </c>
       <c r="K68">
-        <v>2673.442555863095</v>
+        <v>3987140.96389993</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2816,31 +2828,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>45.38553809097978</v>
+        <v>1116454.228482955</v>
       </c>
       <c r="G69">
-        <v>15.4241431881133</v>
+        <v>4841238.244906113</v>
       </c>
       <c r="H69">
-        <v>1525.475049195937</v>
+        <v>3985800.356940194</v>
       </c>
       <c r="I69">
-        <v>-793.1697853786574</v>
+        <v>1115351.457505416</v>
       </c>
       <c r="J69">
-        <v>715.0368102790352</v>
+        <v>4842544.366520564</v>
       </c>
       <c r="K69">
-        <v>2776.664640556209</v>
+        <v>3987247.827380133</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2851,31 +2863,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>42.47912575463101</v>
+        <v>1116448.28697786</v>
       </c>
       <c r="G70">
-        <v>31.76159417391972</v>
+        <v>4841254.757718815</v>
       </c>
       <c r="H70">
-        <v>1567.937081129875</v>
+        <v>3985840.094589096</v>
       </c>
       <c r="I70">
-        <v>-760.5435041692582</v>
+        <v>1115393.087050894</v>
       </c>
       <c r="J70">
-        <v>688.6600850072042</v>
+        <v>4842495.714910084</v>
       </c>
       <c r="K70">
-        <v>2865.254247723469</v>
+        <v>3987339.542188645</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2886,31 +2898,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>40.0657679027299</v>
+        <v>1116443.353411554</v>
       </c>
       <c r="G71">
-        <v>48.09904515972612</v>
+        <v>4841271.270531517</v>
       </c>
       <c r="H71">
-        <v>1605.426853552438</v>
+        <v>3985875.179000887</v>
       </c>
       <c r="I71">
-        <v>-727.1138308007062</v>
+        <v>1115435.741685631</v>
       </c>
       <c r="J71">
-        <v>662.2833597353731</v>
+        <v>4842447.063299604</v>
       </c>
       <c r="K71">
-        <v>2939.211377364878</v>
+        <v>3987416.108325464</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2921,31 +2933,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>38.0206287058603</v>
+        <v>1116439.172585314</v>
       </c>
       <c r="G72">
-        <v>64.43649614553254</v>
+        <v>4841287.783344219</v>
       </c>
       <c r="H72">
-        <v>1638.987743895502</v>
+        <v>3985906.586609439</v>
       </c>
       <c r="I72">
-        <v>-692.8609824801888</v>
+        <v>1115479.446651506</v>
       </c>
       <c r="J72">
-        <v>635.906634463542</v>
+        <v>4842398.411689124</v>
       </c>
       <c r="K72">
-        <v>2998.536029480433</v>
+        <v>3987477.525790591</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2956,31 +2968,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>36.25894081228631</v>
+        <v>1116435.571211392</v>
       </c>
       <c r="G73">
-        <v>80.77394713133896</v>
+        <v>4841304.296156921</v>
       </c>
       <c r="H73">
-        <v>1669.365679881102</v>
+        <v>3985935.015483412</v>
       </c>
       <c r="I73">
-        <v>-657.7646892818213</v>
+        <v>1115524.227811959</v>
       </c>
       <c r="J73">
-        <v>609.529909191711</v>
+        <v>4842349.760078643</v>
       </c>
       <c r="K73">
-        <v>3043.228204070135</v>
+        <v>3987523.794584026</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2991,31 +3003,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>34.7208962517273</v>
+        <v>1116432.427025869</v>
       </c>
       <c r="G74">
-        <v>97.11139811714536</v>
+        <v>4841320.808969624</v>
       </c>
       <c r="H74">
-        <v>1697.112455785932</v>
+        <v>3985960.982013718</v>
       </c>
       <c r="I74">
-        <v>-621.804182151442</v>
+        <v>1115570.11166729</v>
       </c>
       <c r="J74">
-        <v>583.1531839198798</v>
+        <v>4842301.108468164</v>
       </c>
       <c r="K74">
-        <v>3073.287901133985</v>
+        <v>3987554.914705768</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3026,31 +3038,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>33.36294827243324</v>
+        <v>1116429.651007223</v>
       </c>
       <c r="G75">
-        <v>113.4488491029518</v>
+        <v>4841337.321782325</v>
       </c>
       <c r="H75">
-        <v>1722.647753694318</v>
+        <v>3985984.878955448</v>
       </c>
       <c r="I75">
-        <v>-584.9581806160368</v>
+        <v>1115617.125370346</v>
       </c>
       <c r="J75">
-        <v>556.7764586480488</v>
+        <v>4842252.456857683</v>
       </c>
       <c r="K75">
-        <v>3088.715120671981</v>
+        <v>3987570.886155817</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3061,31 +3073,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>32.152545518522</v>
+        <v>1116427.176611543</v>
       </c>
       <c r="G76">
-        <v>129.7863000887582</v>
+        <v>4841353.834595028</v>
       </c>
       <c r="H76">
-        <v>1746.298218331841</v>
+        <v>3986007.011995656</v>
       </c>
       <c r="I76">
-        <v>-547.204880190522</v>
+        <v>1115665.296742588</v>
       </c>
       <c r="J76">
-        <v>530.3997333762177</v>
+        <v>4842203.805247203</v>
       </c>
       <c r="K76">
-        <v>3089.509862684125</v>
+        <v>3987571.708934175</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3096,31 +3108,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>31.06480748643706</v>
+        <v>1116424.952976246</v>
       </c>
       <c r="G77">
-        <v>146.1237510745646</v>
+        <v>4841370.34740773</v>
       </c>
       <c r="H77">
-        <v>1768.323074842733</v>
+        <v>3986027.623727485</v>
       </c>
       <c r="I77">
-        <v>-508.5219394744287</v>
+        <v>1115714.654290554</v>
       </c>
       <c r="J77">
-        <v>504.0230081043866</v>
+        <v>4842155.153636723</v>
       </c>
       <c r="K77">
-        <v>3075.672127170415</v>
+        <v>3987557.383040839</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3131,31 +3143,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>30.08034970739862</v>
+        <v>1116422.940474153</v>
       </c>
       <c r="G78">
-        <v>162.461202060371</v>
+        <v>4841386.860220432</v>
       </c>
       <c r="H78">
-        <v>1788.93149431181</v>
+        <v>3986046.909901508</v>
       </c>
       <c r="I78">
-        <v>-468.8864669308541</v>
+        <v>1115765.227222732</v>
       </c>
       <c r="J78">
-        <v>477.6462828325556</v>
+        <v>4842106.502026243</v>
       </c>
       <c r="K78">
-        <v>3047.201914130853</v>
+        <v>3987527.908475812</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3166,31 +3178,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>29.18381708015838</v>
+        <v>1116421.10771522</v>
       </c>
       <c r="G79">
-        <v>178.7986530461774</v>
+        <v>4841403.373033134</v>
       </c>
       <c r="H79">
-        <v>1808.294704817045</v>
+        <v>3986065.030759734</v>
       </c>
       <c r="I79">
-        <v>-428.2750073398602</v>
+        <v>1115817.045466837</v>
       </c>
       <c r="J79">
-        <v>451.2695575607245</v>
+        <v>4842057.850415763</v>
       </c>
       <c r="K79">
-        <v>3004.099223565438</v>
+        <v>3987483.285239092</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3201,31 +3213,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>28.3628683449939</v>
+        <v>1116419.429470522</v>
       </c>
       <c r="G80">
-        <v>195.1361040319838</v>
+        <v>4841419.885845836</v>
       </c>
       <c r="H80">
-        <v>1826.554647507091</v>
+        <v>3986082.119136303</v>
       </c>
       <c r="I80">
-        <v>-386.663527918296</v>
+        <v>1115870.139687532</v>
       </c>
       <c r="J80">
-        <v>424.8928322888934</v>
+        <v>4842009.198805282</v>
       </c>
       <c r="K80">
-        <v>2946.36405547417</v>
+        <v>3987423.51333068</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3236,31 +3248,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>27.60745652692306</v>
+        <v>1116417.885201284</v>
       </c>
       <c r="G81">
-        <v>211.4735550177903</v>
+        <v>4841436.398658538</v>
       </c>
       <c r="H81">
-        <v>1843.830296873938</v>
+        <v>3986098.28637225</v>
       </c>
       <c r="I81">
-        <v>-344.0274040978351</v>
+        <v>1115924.541304566</v>
       </c>
       <c r="J81">
-        <v>398.5161070170624</v>
+        <v>4841960.547194802</v>
       </c>
       <c r="K81">
-        <v>2873.996409857049</v>
+        <v>3987348.592750575</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3271,31 +3283,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>26.90930861482396</v>
+        <v>1116416.457995197</v>
       </c>
       <c r="G82">
-        <v>227.8110060035967</v>
+        <v>4841452.911471241</v>
       </c>
       <c r="H82">
-        <v>1860.222363014119</v>
+        <v>3986113.626716067</v>
       </c>
       <c r="I82">
-        <v>-300.3414049528095</v>
+        <v>1115980.28251137</v>
       </c>
       <c r="J82">
-        <v>372.1393817452313</v>
+        <v>4841911.895584323</v>
       </c>
       <c r="K82">
-        <v>2786.996286714075</v>
+        <v>3987258.523498779</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3306,31 +3318,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>26.26154245038795</v>
+        <v>1116415.13378324</v>
       </c>
       <c r="G83">
-        <v>244.1484569894031</v>
+        <v>4841469.424283942</v>
       </c>
       <c r="H83">
-        <v>1875.816848820846</v>
+        <v>3986128.220652663</v>
       </c>
       <c r="I83">
-        <v>-255.57967826922</v>
+        <v>1116037.396294112</v>
       </c>
       <c r="J83">
-        <v>345.7626564734001</v>
+        <v>4841863.243973842</v>
       </c>
       <c r="K83">
-        <v>2685.363686045248</v>
+        <v>3987153.305575289</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3341,31 +3353,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>25.6583800488072</v>
+        <v>1116413.900753626</v>
       </c>
       <c r="G84">
-        <v>260.4859079752095</v>
+        <v>4841485.937096645</v>
       </c>
       <c r="H84">
-        <v>1890.687781233641</v>
+        <v>3986142.137459375</v>
       </c>
       <c r="I84">
-        <v>-209.7157352460807</v>
+        <v>1116095.916451209</v>
       </c>
       <c r="J84">
-        <v>319.3859312015691</v>
+        <v>4841814.592363361</v>
       </c>
       <c r="K84">
-        <v>2569.098607850569</v>
+        <v>3987032.938980107</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3376,31 +3388,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>25.09492993706374</v>
+        <v>1116412.74890684</v>
       </c>
       <c r="G85">
-        <v>276.8233589610159</v>
+        <v>4841502.449909347</v>
       </c>
       <c r="H85">
-        <v>1904.899336499007</v>
+        <v>3986155.437194875</v>
       </c>
       <c r="I85">
-        <v>-162.7224348200506</v>
+        <v>1116155.877613338</v>
       </c>
       <c r="J85">
-        <v>293.009205929738</v>
+        <v>4841765.940752882</v>
       </c>
       <c r="K85">
-        <v>2438.201052130036</v>
+        <v>3986897.423713233</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3411,31 +3423,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>24.56701970653222</v>
+        <v>1116411.669713332</v>
       </c>
       <c r="G86">
-        <v>293.1608099468223</v>
+        <v>4841518.962722049</v>
       </c>
       <c r="H86">
-        <v>1918.507513952645</v>
+        <v>3986168.172265553</v>
       </c>
       <c r="I86">
-        <v>-114.5719676040728</v>
+        <v>1116217.31526392</v>
       </c>
       <c r="J86">
-        <v>266.632480657907</v>
+        <v>4841717.289142402</v>
       </c>
       <c r="K86">
-        <v>2292.671018883651</v>
+        <v>3986746.759774667</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3446,31 +3458,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>24.07106564688305</v>
+        <v>1116410.655847014</v>
       </c>
       <c r="G87">
-        <v>309.4982609326287</v>
+        <v>4841535.475534751</v>
       </c>
       <c r="H87">
-        <v>1931.561468739311</v>
+        <v>3986180.38867274</v>
       </c>
       <c r="I87">
-        <v>-65.23583943051904</v>
+        <v>1116280.265760127</v>
       </c>
       <c r="J87">
-        <v>240.2557553860759</v>
+        <v>4841668.637531921</v>
       </c>
       <c r="K87">
-        <v>2132.508508111413</v>
+        <v>3986580.947164407</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3481,31 +3493,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>23.60397013644173</v>
+        <v>1116409.700975498</v>
       </c>
       <c r="G88">
-        <v>325.8357119184352</v>
+        <v>4841551.988347453</v>
       </c>
       <c r="H88">
-        <v>1944.104583611763</v>
+        <v>3986192.127015731</v>
       </c>
       <c r="I88">
-        <v>-14.68485448909743</v>
+        <v>1116344.766354389</v>
       </c>
       <c r="J88">
-        <v>213.8790301142448</v>
+        <v>4841619.985921441</v>
       </c>
       <c r="K88">
-        <v>1957.713519813321</v>
+        <v>3986399.985882456</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3516,31 +3528,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>23.16304006794613</v>
+        <v>1116408.799593332</v>
       </c>
       <c r="G89">
-        <v>342.1731629042416</v>
+        <v>4841568.501160155</v>
       </c>
       <c r="H89">
-        <v>1956.175338805886</v>
+        <v>3986203.423305852</v>
       </c>
       <c r="I89">
-        <v>37.11090195045343</v>
+        <v>1116410.855216446</v>
       </c>
       <c r="J89">
-        <v>187.5023048424138</v>
+        <v>4841571.334310961</v>
       </c>
       <c r="K89">
-        <v>1768.286053989378</v>
+        <v>3986203.875928813</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3551,31 +3563,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>22.74592139833448</v>
+        <v>1116407.946888204</v>
       </c>
       <c r="G90">
-        <v>358.510613890048</v>
+        <v>4841585.013972858</v>
       </c>
       <c r="H90">
-        <v>1967.80802398943</v>
+        <v>3986214.309632732</v>
       </c>
       <c r="I90">
-        <v>90.18208124110599</v>
+        <v>1116478.57145593</v>
       </c>
       <c r="J90">
-        <v>161.1255795705827</v>
+        <v>4841522.682700481</v>
       </c>
       <c r="K90">
-        <v>1564.226110639581</v>
+        <v>3985992.617303477</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3586,31 +3598,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>22.35054618797741</v>
+        <v>1116407.13863268</v>
       </c>
       <c r="G91">
-        <v>374.8480648758544</v>
+        <v>4841601.526785559</v>
       </c>
       <c r="H91">
-        <v>1979.033325488202</v>
+        <v>3986224.814713846</v>
       </c>
       <c r="I91">
-        <v>144.5600894972017</v>
+        <v>1116547.955145514</v>
       </c>
       <c r="J91">
-        <v>134.7488542987517</v>
+        <v>4841474.031090001</v>
       </c>
       <c r="K91">
-        <v>1345.533689763931</v>
+        <v>3985766.210006448</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3621,31 +3633,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>21.97508940810636</v>
+        <v>1116406.371095898</v>
       </c>
       <c r="G92">
-        <v>391.1855158616608</v>
+        <v>4841618.039598262</v>
       </c>
       <c r="H92">
-        <v>1989.878814123945</v>
+        <v>3986234.964351062</v>
       </c>
       <c r="I92">
-        <v>200.2771061797528</v>
+        <v>1116619.047344621</v>
       </c>
       <c r="J92">
-        <v>108.3721290269206</v>
+        <v>4841425.37947952</v>
       </c>
       <c r="K92">
-        <v>1112.208791362428</v>
+        <v>3985524.654037727</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3656,31 +3668,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>21.61793345692629</v>
+        <v>1116405.640971037</v>
       </c>
       <c r="G93">
-        <v>407.5229668474672</v>
+        <v>4841634.552410964</v>
       </c>
       <c r="H93">
-        <v>2000.369353190561</v>
+        <v>3986244.781812433</v>
       </c>
       <c r="I93">
-        <v>257.3661031393969</v>
+        <v>1116691.890123729</v>
       </c>
       <c r="J93">
-        <v>81.99540375508946</v>
+        <v>4841376.72786904</v>
       </c>
       <c r="K93">
-        <v>864.2514154350721</v>
+        <v>3985267.949397314</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3691,31 +3703,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>21.277638810043</v>
+        <v>1116404.945315313</v>
       </c>
       <c r="G94">
-        <v>423.8604178332736</v>
+        <v>4841651.065223666</v>
       </c>
       <c r="H94">
-        <v>2010.527441761101</v>
+        <v>3986254.288153479</v>
       </c>
       <c r="I94">
-        <v>315.8608641282572</v>
+        <v>1116766.526589257</v>
       </c>
       <c r="J94">
-        <v>55.61867848325846</v>
+        <v>4841328.076258561</v>
       </c>
       <c r="K94">
-        <v>601.6615619818639</v>
+        <v>3984996.096085208</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3726,31 +3738,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>20.95291959044172</v>
+        <v>1116404.281500041</v>
       </c>
       <c r="G95">
-        <v>440.19786881908</v>
+        <v>4841667.578036368</v>
       </c>
       <c r="H95">
-        <v>2020.373505249494</v>
+        <v>3986263.502489114</v>
       </c>
       <c r="I95">
-        <v>375.7960047922761</v>
+        <v>1116843.000909085</v>
       </c>
       <c r="J95">
-        <v>29.24195321142734</v>
+        <v>4841279.42464808</v>
       </c>
       <c r="K95">
-        <v>324.4392310028019</v>
+        <v>3984709.09410141</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3761,31 +3773,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>20.64262311254103</v>
+        <v>1116403.647168813</v>
       </c>
       <c r="G96">
-        <v>456.5353198048865</v>
+        <v>4841684.090849071</v>
       </c>
       <c r="H96">
-        <v>2029.926142662299</v>
+        <v>3986272.442225022</v>
       </c>
       <c r="I96">
-        <v>437.2069931558275</v>
+        <v>1116921.358338684</v>
       </c>
       <c r="J96">
-        <v>2.865227939596219</v>
+        <v>4841230.773037599</v>
       </c>
       <c r="K96">
-        <v>32.58442249788732</v>
+        <v>3984406.94344592</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3796,31 +3808,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>20.34571265843977</v>
+        <v>1116403.040202295</v>
       </c>
       <c r="G97">
-        <v>472.8727707906929</v>
+        <v>4841700.603661772</v>
       </c>
       <c r="H97">
-        <v>2039.20233806345</v>
+        <v>3986281.123255561</v>
       </c>
       <c r="I97">
-        <v>500.1301706107576</v>
+        <v>1117001.645247899</v>
       </c>
       <c r="J97">
-        <v>-23.51149733223478</v>
+        <v>4841182.12142712</v>
       </c>
       <c r="K97">
-        <v>-273.9028635328793</v>
+        <v>3984089.644118737</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3831,31 +3843,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>20.06125289977962</v>
+        <v>1116402.458688418</v>
       </c>
       <c r="G98">
-        <v>489.2102217764992</v>
+        <v>4841717.116474475</v>
       </c>
       <c r="H98">
-        <v>2048.217642293292</v>
+        <v>3986289.560133824</v>
       </c>
       <c r="I98">
-        <v>564.6027734222538</v>
+        <v>1117083.90914839</v>
       </c>
       <c r="J98">
-        <v>-49.88822260406589</v>
+        <v>4841133.46981664</v>
       </c>
       <c r="K98">
-        <v>-595.0226270894998</v>
+        <v>3983757.196119863</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3866,31 +3878,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>19.7883974981117</v>
+        <v>1116401.900897034</v>
       </c>
       <c r="G99">
-        <v>505.5476727623057</v>
+        <v>4841733.629287176</v>
       </c>
       <c r="H99">
-        <v>2056.986329825812</v>
+        <v>3986297.766218428</v>
       </c>
       <c r="I99">
-        <v>630.6629547642766</v>
+        <v>1117168.19872175</v>
       </c>
       <c r="J99">
-        <v>-76.26494787589701</v>
+        <v>4841084.818206158</v>
       </c>
       <c r="K99">
-        <v>-930.7748681719738</v>
+        <v>3983409.599449295</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3901,31 +3913,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>19.52637850928287</v>
+        <v>1116401.365258255</v>
       </c>
       <c r="G100">
-        <v>521.8851237481121</v>
+        <v>4841750.142099878</v>
       </c>
       <c r="H100">
-        <v>2065.521534737359</v>
+        <v>3986305.75380076</v>
       </c>
       <c r="I100">
-        <v>698.3498072975942</v>
+        <v>1117254.563848309</v>
       </c>
       <c r="J100">
-        <v>-102.6416731477281</v>
+        <v>4841036.166595679</v>
       </c>
       <c r="K100">
-        <v>-1281.1595867803</v>
+        <v>3983046.854107035</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3936,31 +3948,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>19.27449728970634</v>
+        <v>1116400.85034386</v>
       </c>
       <c r="G101">
-        <v>538.2225747339185</v>
+        <v>4841766.654912581</v>
       </c>
       <c r="H101">
-        <v>2073.835369038453</v>
+        <v>3986313.534215719</v>
       </c>
       <c r="I101">
-        <v>767.7033863037817</v>
+        <v>1117343.055636655</v>
       </c>
       <c r="J101">
-        <v>-129.018398419559</v>
+        <v>4840987.514985199</v>
       </c>
       <c r="K101">
-        <v>-1646.176782914477</v>
+        <v>3982668.960093083</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3971,31 +3983,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>19.03211665929046</v>
+        <v>1116400.354851279</v>
       </c>
       <c r="G102">
-        <v>554.560025719725</v>
+        <v>4841783.167725282</v>
       </c>
       <c r="H102">
-        <v>2081.939026044711</v>
+        <v>3986321.117938454</v>
       </c>
       <c r="I102">
-        <v>838.7647333888748</v>
+        <v>1117433.726453878</v>
       </c>
       <c r="J102">
-        <v>-155.3951236913901</v>
+        <v>4840938.863374719</v>
       </c>
       <c r="K102">
-        <v>-2025.826456574509</v>
+        <v>3982275.917407439</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4006,31 +4018,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>18.79865412085973</v>
+        <v>1116399.877589727</v>
       </c>
       <c r="G103">
-        <v>570.8974767055313</v>
+        <v>4841799.680537985</v>
       </c>
       <c r="H103">
-        <v>2089.842871000845</v>
+        <v>3986328.514669169</v>
       </c>
       <c r="I103">
-        <v>911.5759007706972</v>
+        <v>1117526.62995656</v>
       </c>
       <c r="J103">
-        <v>-181.7718489632212</v>
+        <v>4840890.211764238</v>
       </c>
       <c r="K103">
-        <v>-2420.108607760395</v>
+        <v>3981867.726050101</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4041,31 +4053,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>18.57357597180438</v>
+        <v>1116399.41746817</v>
       </c>
       <c r="G104">
-        <v>587.2349276913377</v>
+        <v>4841816.193350687</v>
       </c>
       <c r="H104">
-        <v>2097.556520798653</v>
+        <v>3986335.733407733</v>
       </c>
       <c r="I104">
-        <v>986.1799761642511</v>
+        <v>1117621.821122525</v>
       </c>
       <c r="J104">
-        <v>-208.1485742350524</v>
+        <v>4840841.560153758</v>
       </c>
       <c r="K104">
-        <v>-2829.023236472133</v>
+        <v>3981444.386021072</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4076,31 +4088,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>18.35639217247157</v>
+        <v>1116398.973484832</v>
       </c>
       <c r="G105">
-        <v>603.5723786771442</v>
+        <v>4841832.706163389</v>
       </c>
       <c r="H105">
-        <v>2105.088914327011</v>
+        <v>3986342.78251951</v>
       </c>
       <c r="I105">
-        <v>1062.621108279881</v>
+        <v>1117719.356283378</v>
       </c>
       <c r="J105">
-        <v>-234.5252995068835</v>
+        <v>4840792.908543278</v>
       </c>
       <c r="K105">
-        <v>-3252.570342709723</v>
+        <v>3981005.89732035</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4111,31 +4123,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>18.14665185900377</v>
+        <v>1116398.544718024</v>
       </c>
       <c r="G106">
-        <v>619.9098296629505</v>
+        <v>4841849.218976091</v>
       </c>
       <c r="H106">
-        <v>2112.448374744646</v>
+        <v>3986349.669793644</v>
       </c>
       <c r="I106">
-        <v>1140.944532949305</v>
+        <v>1117819.293157837</v>
       </c>
       <c r="J106">
-        <v>-260.9020247787143</v>
+        <v>4840744.256932799</v>
       </c>
       <c r="K106">
-        <v>-3690.749926473164</v>
+        <v>3980552.259947936</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4146,31 +4158,3741 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>17.9439394071264</v>
+        <v>1116398.130318095</v>
       </c>
       <c r="G107">
-        <v>636.2472806487569</v>
+        <v>4841865.731788794</v>
       </c>
       <c r="H107">
-        <v>2119.642664763605</v>
+        <v>3986356.402494785</v>
       </c>
       <c r="I107">
-        <v>1221.196599894985</v>
+        <v>1117921.690885888</v>
       </c>
       <c r="J107">
-        <v>-287.2787500505455</v>
+        <v>4840695.605322317</v>
       </c>
       <c r="K107">
-        <v>-4143.561987762461</v>
+        <v>3980083.47390383</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116577.811332134</v>
+      </c>
+      <c r="G108">
+        <v>4841124.102898438</v>
+      </c>
+      <c r="H108">
+        <v>3985222.636149506</v>
+      </c>
+      <c r="I108">
+        <v>1114861.668664643</v>
+      </c>
+      <c r="J108">
+        <v>4843221.470045273</v>
+      </c>
+      <c r="K108">
+        <v>3984370.237389396</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116577.811332134</v>
+      </c>
+      <c r="G109">
+        <v>4841124.102898438</v>
+      </c>
+      <c r="H109">
+        <v>3985222.636149506</v>
+      </c>
+      <c r="I109">
+        <v>1114891.282669374</v>
+      </c>
+      <c r="J109">
+        <v>4843172.818475166</v>
+      </c>
+      <c r="K109">
+        <v>3984674.033374984</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116577.811332134</v>
+      </c>
+      <c r="G110">
+        <v>4841124.102898438</v>
+      </c>
+      <c r="H110">
+        <v>3985222.636149506</v>
+      </c>
+      <c r="I110">
+        <v>1114921.625891727</v>
+      </c>
+      <c r="J110">
+        <v>4843124.166905058</v>
+      </c>
+      <c r="K110">
+        <v>3984962.680700181</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116577.811332134</v>
+      </c>
+      <c r="G111">
+        <v>4841124.102898438</v>
+      </c>
+      <c r="H111">
+        <v>3985222.636149506</v>
+      </c>
+      <c r="I111">
+        <v>1114952.716288016</v>
+      </c>
+      <c r="J111">
+        <v>4843075.51533495</v>
+      </c>
+      <c r="K111">
+        <v>3985236.179364984</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116577.811332134</v>
+      </c>
+      <c r="G112">
+        <v>4841124.102898438</v>
+      </c>
+      <c r="H112">
+        <v>3985222.636149506</v>
+      </c>
+      <c r="I112">
+        <v>1114984.57225671</v>
+      </c>
+      <c r="J112">
+        <v>4843026.863764842</v>
+      </c>
+      <c r="K112">
+        <v>3985494.529369396</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116577.811332134</v>
+      </c>
+      <c r="G113">
+        <v>4841124.102898438</v>
+      </c>
+      <c r="H113">
+        <v>3985222.636149506</v>
+      </c>
+      <c r="I113">
+        <v>1115017.212649327</v>
+      </c>
+      <c r="J113">
+        <v>4842978.212194734</v>
+      </c>
+      <c r="K113">
+        <v>3985737.730713415</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116577.811332134</v>
+      </c>
+      <c r="G114">
+        <v>4841124.102898438</v>
+      </c>
+      <c r="H114">
+        <v>3985222.636149506</v>
+      </c>
+      <c r="I114">
+        <v>1115050.656781584</v>
+      </c>
+      <c r="J114">
+        <v>4842929.560624626</v>
+      </c>
+      <c r="K114">
+        <v>3985965.783397042</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116577.811332134</v>
+      </c>
+      <c r="G115">
+        <v>4841124.102898438</v>
+      </c>
+      <c r="H115">
+        <v>3985222.636149506</v>
+      </c>
+      <c r="I115">
+        <v>1115084.924444828</v>
+      </c>
+      <c r="J115">
+        <v>4842880.909054518</v>
+      </c>
+      <c r="K115">
+        <v>3986178.687420277</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116577.811332134</v>
+      </c>
+      <c r="G116">
+        <v>4841140.615716078</v>
+      </c>
+      <c r="H116">
+        <v>3985222.636149506</v>
+      </c>
+      <c r="I116">
+        <v>1115120.035917755</v>
+      </c>
+      <c r="J116">
+        <v>4842832.25748441</v>
+      </c>
+      <c r="K116">
+        <v>3986376.442783119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116529.130798557</v>
+      </c>
+      <c r="G117">
+        <v>4841157.128533717</v>
+      </c>
+      <c r="H117">
+        <v>3985421.89027168</v>
+      </c>
+      <c r="I117">
+        <v>1115156.011978401</v>
+      </c>
+      <c r="J117">
+        <v>4842783.605914303</v>
+      </c>
+      <c r="K117">
+        <v>3986559.049485569</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116500.533427159</v>
+      </c>
+      <c r="G118">
+        <v>4841173.641351358</v>
+      </c>
+      <c r="H118">
+        <v>3985540.57621709</v>
+      </c>
+      <c r="I118">
+        <v>1115192.873916443</v>
+      </c>
+      <c r="J118">
+        <v>4842734.954344194</v>
+      </c>
+      <c r="K118">
+        <v>3986726.507527628</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116482.480668324</v>
+      </c>
+      <c r="G119">
+        <v>4841190.154168999</v>
+      </c>
+      <c r="H119">
+        <v>3985625.393040598</v>
+      </c>
+      <c r="I119">
+        <v>1115230.643545796</v>
+      </c>
+      <c r="J119">
+        <v>4842686.302774087</v>
+      </c>
+      <c r="K119">
+        <v>3986878.816909293</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116469.890747592</v>
+      </c>
+      <c r="G120">
+        <v>4841206.666986638</v>
+      </c>
+      <c r="H120">
+        <v>3985691.439855622</v>
+      </c>
+      <c r="I120">
+        <v>1115269.343217525</v>
+      </c>
+      <c r="J120">
+        <v>4842637.651203979</v>
+      </c>
+      <c r="K120">
+        <v>3987015.977630567</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116460.498289702</v>
+      </c>
+      <c r="G121">
+        <v>4841223.179804279</v>
+      </c>
+      <c r="H121">
+        <v>3985745.537320186</v>
+      </c>
+      <c r="I121">
+        <v>1115308.995833067</v>
+      </c>
+      <c r="J121">
+        <v>4842588.999633871</v>
+      </c>
+      <c r="K121">
+        <v>3987137.989691448</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116453.154699249</v>
+      </c>
+      <c r="G122">
+        <v>4841239.692621917</v>
+      </c>
+      <c r="H122">
+        <v>3985791.353923748</v>
+      </c>
+      <c r="I122">
+        <v>1115349.624857788</v>
+      </c>
+      <c r="J122">
+        <v>4842540.348063762</v>
+      </c>
+      <c r="K122">
+        <v>3987244.853091937</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116447.213199868</v>
+      </c>
+      <c r="G123">
+        <v>4841256.205439558</v>
+      </c>
+      <c r="H123">
+        <v>3985831.09148289</v>
+      </c>
+      <c r="I123">
+        <v>1115391.254334864</v>
+      </c>
+      <c r="J123">
+        <v>4842491.696493655</v>
+      </c>
+      <c r="K123">
+        <v>3987336.567832034</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116442.279638307</v>
+      </c>
+      <c r="G124">
+        <v>4841272.718257199</v>
+      </c>
+      <c r="H124">
+        <v>3985866.175815435</v>
+      </c>
+      <c r="I124">
+        <v>1115433.908899514</v>
+      </c>
+      <c r="J124">
+        <v>4842443.044923547</v>
+      </c>
+      <c r="K124">
+        <v>3987413.133911739</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116438.098816089</v>
+      </c>
+      <c r="G125">
+        <v>4841289.231074838</v>
+      </c>
+      <c r="H125">
+        <v>3985897.583353043</v>
+      </c>
+      <c r="I125">
+        <v>1115477.613793578</v>
+      </c>
+      <c r="J125">
+        <v>4842394.393353439</v>
+      </c>
+      <c r="K125">
+        <v>3987474.551331052</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116434.497445631</v>
+      </c>
+      <c r="G126">
+        <v>4841305.743892479</v>
+      </c>
+      <c r="H126">
+        <v>3985926.012162802</v>
+      </c>
+      <c r="I126">
+        <v>1115522.39488045</v>
+      </c>
+      <c r="J126">
+        <v>4842345.741783331</v>
+      </c>
+      <c r="K126">
+        <v>3987520.820089972</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116431.353263131</v>
+      </c>
+      <c r="G127">
+        <v>4841322.256710119</v>
+      </c>
+      <c r="H127">
+        <v>3985951.978634456</v>
+      </c>
+      <c r="I127">
+        <v>1115568.278660388</v>
+      </c>
+      <c r="J127">
+        <v>4842297.090213223</v>
+      </c>
+      <c r="K127">
+        <v>3987551.9401885</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116428.577247156</v>
+      </c>
+      <c r="G128">
+        <v>4841338.769527758</v>
+      </c>
+      <c r="H128">
+        <v>3985975.875522207</v>
+      </c>
+      <c r="I128">
+        <v>1115615.292286196</v>
+      </c>
+      <c r="J128">
+        <v>4842248.438643116</v>
+      </c>
+      <c r="K128">
+        <v>3987567.911626636</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116426.102853855</v>
+      </c>
+      <c r="G129">
+        <v>4841355.282345398</v>
+      </c>
+      <c r="H129">
+        <v>3985998.008512422</v>
+      </c>
+      <c r="I129">
+        <v>1115663.463579287</v>
+      </c>
+      <c r="J129">
+        <v>4842199.787073008</v>
+      </c>
+      <c r="K129">
+        <v>3987568.73440438</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116423.879220697</v>
+      </c>
+      <c r="G130">
+        <v>4841371.795163039</v>
+      </c>
+      <c r="H130">
+        <v>3986018.620197694</v>
+      </c>
+      <c r="I130">
+        <v>1115712.821046153</v>
+      </c>
+      <c r="J130">
+        <v>4842151.135502899</v>
+      </c>
+      <c r="K130">
+        <v>3987554.40852173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116421.866720539</v>
+      </c>
+      <c r="G131">
+        <v>4841388.307980679</v>
+      </c>
+      <c r="H131">
+        <v>3986037.906328154</v>
+      </c>
+      <c r="I131">
+        <v>1115763.393895233</v>
+      </c>
+      <c r="J131">
+        <v>4842102.483932791</v>
+      </c>
+      <c r="K131">
+        <v>3987524.933978689</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116420.033963369</v>
+      </c>
+      <c r="G132">
+        <v>4841404.820798319</v>
+      </c>
+      <c r="H132">
+        <v>3986056.027145449</v>
+      </c>
+      <c r="I132">
+        <v>1115815.212054196</v>
+      </c>
+      <c r="J132">
+        <v>4842053.832362683</v>
+      </c>
+      <c r="K132">
+        <v>3987480.310775256</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116418.355720285</v>
+      </c>
+      <c r="G133">
+        <v>4841421.333615959</v>
+      </c>
+      <c r="H133">
+        <v>3986073.115483419</v>
+      </c>
+      <c r="I133">
+        <v>1115868.306187651</v>
+      </c>
+      <c r="J133">
+        <v>4842005.180792575</v>
+      </c>
+      <c r="K133">
+        <v>3987420.538911431</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116416.811452532</v>
+      </c>
+      <c r="G134">
+        <v>4841437.846433599</v>
+      </c>
+      <c r="H134">
+        <v>3986089.282682849</v>
+      </c>
+      <c r="I134">
+        <v>1115922.707715297</v>
+      </c>
+      <c r="J134">
+        <v>4841956.529222468</v>
+      </c>
+      <c r="K134">
+        <v>3987345.618387213</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116415.384247818</v>
+      </c>
+      <c r="G135">
+        <v>4841454.359251239</v>
+      </c>
+      <c r="H135">
+        <v>3986104.622992015</v>
+      </c>
+      <c r="I135">
+        <v>1115978.448830512</v>
+      </c>
+      <c r="J135">
+        <v>4841907.87765236</v>
+      </c>
+      <c r="K135">
+        <v>3987255.549202604</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116414.060037135</v>
+      </c>
+      <c r="G136">
+        <v>4841470.872068879</v>
+      </c>
+      <c r="H136">
+        <v>3986119.216895647</v>
+      </c>
+      <c r="I136">
+        <v>1116035.562519409</v>
+      </c>
+      <c r="J136">
+        <v>4841859.226082252</v>
+      </c>
+      <c r="K136">
+        <v>3987150.331357602</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116412.827008707</v>
+      </c>
+      <c r="G137">
+        <v>4841487.384886519</v>
+      </c>
+      <c r="H137">
+        <v>3986133.133670924</v>
+      </c>
+      <c r="I137">
+        <v>1116094.082580352</v>
+      </c>
+      <c r="J137">
+        <v>4841810.574512144</v>
+      </c>
+      <c r="K137">
+        <v>3987029.964852207</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116411.675163028</v>
+      </c>
+      <c r="G138">
+        <v>4841503.89770416</v>
+      </c>
+      <c r="H138">
+        <v>3986146.433376383</v>
+      </c>
+      <c r="I138">
+        <v>1116154.043643957</v>
+      </c>
+      <c r="J138">
+        <v>4841761.922942036</v>
+      </c>
+      <c r="K138">
+        <v>3986894.449686421</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116410.595970558</v>
+      </c>
+      <c r="G139">
+        <v>4841520.410521799</v>
+      </c>
+      <c r="H139">
+        <v>3986159.168418295</v>
+      </c>
+      <c r="I139">
+        <v>1116215.481193591</v>
+      </c>
+      <c r="J139">
+        <v>4841713.271371928</v>
+      </c>
+      <c r="K139">
+        <v>3986743.785860242</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116409.582105216</v>
+      </c>
+      <c r="G140">
+        <v>4841536.92333944</v>
+      </c>
+      <c r="H140">
+        <v>3986171.384797888</v>
+      </c>
+      <c r="I140">
+        <v>1116278.431586363</v>
+      </c>
+      <c r="J140">
+        <v>4841664.61980182</v>
+      </c>
+      <c r="K140">
+        <v>3986577.973373671</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>20</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116408.627234618</v>
+      </c>
+      <c r="G141">
+        <v>4841553.436157079</v>
+      </c>
+      <c r="H141">
+        <v>3986183.123114364</v>
+      </c>
+      <c r="I141">
+        <v>1116342.932074643</v>
+      </c>
+      <c r="J141">
+        <v>4841615.968231712</v>
+      </c>
+      <c r="K141">
+        <v>3986397.012226708</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116407.725853318</v>
+      </c>
+      <c r="G142">
+        <v>4841569.948974719</v>
+      </c>
+      <c r="H142">
+        <v>3986194.41937897</v>
+      </c>
+      <c r="I142">
+        <v>1116409.020828109</v>
+      </c>
+      <c r="J142">
+        <v>4841567.316661604</v>
+      </c>
+      <c r="K142">
+        <v>3986200.902419353</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116406.873149011</v>
+      </c>
+      <c r="G143">
+        <v>4841586.46179236</v>
+      </c>
+      <c r="H143">
+        <v>3986205.30568126</v>
+      </c>
+      <c r="I143">
+        <v>1116476.736956327</v>
+      </c>
+      <c r="J143">
+        <v>4841518.665091497</v>
+      </c>
+      <c r="K143">
+        <v>3985989.643951605</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116406.064894264</v>
+      </c>
+      <c r="G144">
+        <v>4841602.974609999</v>
+      </c>
+      <c r="H144">
+        <v>3986215.810738646</v>
+      </c>
+      <c r="I144">
+        <v>1116546.120531906</v>
+      </c>
+      <c r="J144">
+        <v>4841470.013521389</v>
+      </c>
+      <c r="K144">
+        <v>3985763.236823465</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116405.297358221</v>
+      </c>
+      <c r="G145">
+        <v>4841619.48742764</v>
+      </c>
+      <c r="H145">
+        <v>3986225.960352936</v>
+      </c>
+      <c r="I145">
+        <v>1116617.212614201</v>
+      </c>
+      <c r="J145">
+        <v>4841421.36195128</v>
+      </c>
+      <c r="K145">
+        <v>3985521.681034933</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116404.567234062</v>
+      </c>
+      <c r="G146">
+        <v>4841636.000245281</v>
+      </c>
+      <c r="H146">
+        <v>3986235.777792131</v>
+      </c>
+      <c r="I146">
+        <v>1116690.055273619</v>
+      </c>
+      <c r="J146">
+        <v>4841372.710381173</v>
+      </c>
+      <c r="K146">
+        <v>3985264.976586009</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>20</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116403.871579007</v>
+      </c>
+      <c r="G147">
+        <v>4841652.513062919</v>
+      </c>
+      <c r="H147">
+        <v>3986245.284111705</v>
+      </c>
+      <c r="I147">
+        <v>1116764.691616512</v>
+      </c>
+      <c r="J147">
+        <v>4841324.058811065</v>
+      </c>
+      <c r="K147">
+        <v>3984993.123476692</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116403.207764373</v>
+      </c>
+      <c r="G148">
+        <v>4841669.02588056</v>
+      </c>
+      <c r="H148">
+        <v>3986254.498426527</v>
+      </c>
+      <c r="I148">
+        <v>1116841.165810684</v>
+      </c>
+      <c r="J148">
+        <v>4841275.407240957</v>
+      </c>
+      <c r="K148">
+        <v>3984706.121706983</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116402.573433755</v>
+      </c>
+      <c r="G149">
+        <v>4841685.5386982</v>
+      </c>
+      <c r="H149">
+        <v>3986263.438142241</v>
+      </c>
+      <c r="I149">
+        <v>1116919.523111532</v>
+      </c>
+      <c r="J149">
+        <v>4841226.755670848</v>
+      </c>
+      <c r="K149">
+        <v>3984403.971276883</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>20</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116401.966467821</v>
+      </c>
+      <c r="G150">
+        <v>4841702.05151584</v>
+      </c>
+      <c r="H150">
+        <v>3986272.119153172</v>
+      </c>
+      <c r="I150">
+        <v>1116999.809888827</v>
+      </c>
+      <c r="J150">
+        <v>4841178.104100741</v>
+      </c>
+      <c r="K150">
+        <v>3984086.672186389</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116401.384954504</v>
+      </c>
+      <c r="G151">
+        <v>4841718.56433348</v>
+      </c>
+      <c r="H151">
+        <v>3986280.556012378</v>
+      </c>
+      <c r="I151">
+        <v>1117082.07365415</v>
+      </c>
+      <c r="J151">
+        <v>4841129.452530634</v>
+      </c>
+      <c r="K151">
+        <v>3983754.224435504</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116400.827163656</v>
+      </c>
+      <c r="G152">
+        <v>4841735.07715112</v>
+      </c>
+      <c r="H152">
+        <v>3986288.762078446</v>
+      </c>
+      <c r="I152">
+        <v>1117166.363089012</v>
+      </c>
+      <c r="J152">
+        <v>4841080.800960525</v>
+      </c>
+      <c r="K152">
+        <v>3983406.628024226</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116400.291525392</v>
+      </c>
+      <c r="G153">
+        <v>4841751.58996876</v>
+      </c>
+      <c r="H153">
+        <v>3986296.749642737</v>
+      </c>
+      <c r="I153">
+        <v>1117252.728073664</v>
+      </c>
+      <c r="J153">
+        <v>4841032.149390417</v>
+      </c>
+      <c r="K153">
+        <v>3983043.882952556</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116399.776611492</v>
+      </c>
+      <c r="G154">
+        <v>4841768.1027864</v>
+      </c>
+      <c r="H154">
+        <v>3986304.530040122</v>
+      </c>
+      <c r="I154">
+        <v>1117341.219716608</v>
+      </c>
+      <c r="J154">
+        <v>4840983.497820309</v>
+      </c>
+      <c r="K154">
+        <v>3982665.989220494</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116399.281119387</v>
+      </c>
+      <c r="G155">
+        <v>4841784.61560404</v>
+      </c>
+      <c r="H155">
+        <v>3986312.113745726</v>
+      </c>
+      <c r="I155">
+        <v>1117431.890384849</v>
+      </c>
+      <c r="J155">
+        <v>4840934.846250202</v>
+      </c>
+      <c r="K155">
+        <v>3982272.94682804</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>4</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116398.803858295</v>
+      </c>
+      <c r="G156">
+        <v>4841801.12842168</v>
+      </c>
+      <c r="H156">
+        <v>3986319.510459735</v>
+      </c>
+      <c r="I156">
+        <v>1117524.793734879</v>
+      </c>
+      <c r="J156">
+        <v>4840886.194680093</v>
+      </c>
+      <c r="K156">
+        <v>3981864.755775193</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116398.34373718</v>
+      </c>
+      <c r="G157">
+        <v>4841817.641239321</v>
+      </c>
+      <c r="H157">
+        <v>3986326.729181992</v>
+      </c>
+      <c r="I157">
+        <v>1117619.984744435</v>
+      </c>
+      <c r="J157">
+        <v>4840837.543109985</v>
+      </c>
+      <c r="K157">
+        <v>3981441.416061954</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116397.899754269</v>
+      </c>
+      <c r="G158">
+        <v>4841834.154056961</v>
+      </c>
+      <c r="H158">
+        <v>3986333.778277848</v>
+      </c>
+      <c r="I158">
+        <v>1117717.519745027</v>
+      </c>
+      <c r="J158">
+        <v>4840788.891539877</v>
+      </c>
+      <c r="K158">
+        <v>3981002.927688323</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116397.470987874</v>
+      </c>
+      <c r="G159">
+        <v>4841850.666874601</v>
+      </c>
+      <c r="H159">
+        <v>3986340.665536424</v>
+      </c>
+      <c r="I159">
+        <v>1117817.456455278</v>
+      </c>
+      <c r="J159">
+        <v>4840740.23996977</v>
+      </c>
+      <c r="K159">
+        <v>3980549.2906543</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116397.056588343</v>
+      </c>
+      <c r="G160">
+        <v>4841867.179692241</v>
+      </c>
+      <c r="H160">
+        <v>3986347.398222358</v>
+      </c>
+      <c r="I160">
+        <v>1117919.854015078</v>
+      </c>
+      <c r="J160">
+        <v>4840691.588399662</v>
+      </c>
+      <c r="K160">
+        <v>3980080.504959885</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
+        <v>18</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116579.802973406</v>
+      </c>
+      <c r="G161">
+        <v>4841118.627033778</v>
+      </c>
+      <c r="H161">
+        <v>3985231.670426452</v>
+      </c>
+      <c r="I161">
+        <v>1114863.082653668</v>
+      </c>
+      <c r="J161">
+        <v>4843220.831611389</v>
+      </c>
+      <c r="K161">
+        <v>3984367.350991752</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>18</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116579.802973406</v>
+      </c>
+      <c r="G162">
+        <v>4841118.627033778</v>
+      </c>
+      <c r="H162">
+        <v>3985231.670426452</v>
+      </c>
+      <c r="I162">
+        <v>1114892.696695959</v>
+      </c>
+      <c r="J162">
+        <v>4843172.180047695</v>
+      </c>
+      <c r="K162">
+        <v>3984671.146757261</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116579.802973406</v>
+      </c>
+      <c r="G163">
+        <v>4841118.627033778</v>
+      </c>
+      <c r="H163">
+        <v>3985231.670426452</v>
+      </c>
+      <c r="I163">
+        <v>1114923.039956797</v>
+      </c>
+      <c r="J163">
+        <v>4843123.528483999</v>
+      </c>
+      <c r="K163">
+        <v>3984959.793873352</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>4</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116579.802973406</v>
+      </c>
+      <c r="G164">
+        <v>4841118.627033778</v>
+      </c>
+      <c r="H164">
+        <v>3985231.670426452</v>
+      </c>
+      <c r="I164">
+        <v>1114954.130392518</v>
+      </c>
+      <c r="J164">
+        <v>4843074.876920305</v>
+      </c>
+      <c r="K164">
+        <v>3985233.292340025</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116579.802973406</v>
+      </c>
+      <c r="G165">
+        <v>4841118.627033778</v>
+      </c>
+      <c r="H165">
+        <v>3985231.670426452</v>
+      </c>
+      <c r="I165">
+        <v>1114985.986401616</v>
+      </c>
+      <c r="J165">
+        <v>4843026.22535661</v>
+      </c>
+      <c r="K165">
+        <v>3985491.64215728</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116579.802973406</v>
+      </c>
+      <c r="G166">
+        <v>4841118.627033778</v>
+      </c>
+      <c r="H166">
+        <v>3985231.670426452</v>
+      </c>
+      <c r="I166">
+        <v>1115018.626835631</v>
+      </c>
+      <c r="J166">
+        <v>4842977.573792916</v>
+      </c>
+      <c r="K166">
+        <v>3985734.843325117</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116579.802973406</v>
+      </c>
+      <c r="G167">
+        <v>4841118.627033778</v>
+      </c>
+      <c r="H167">
+        <v>3985231.670426452</v>
+      </c>
+      <c r="I167">
+        <v>1115052.071010305</v>
+      </c>
+      <c r="J167">
+        <v>4842928.92222922</v>
+      </c>
+      <c r="K167">
+        <v>3985962.895843536</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116579.802973406</v>
+      </c>
+      <c r="G168">
+        <v>4841118.627033778</v>
+      </c>
+      <c r="H168">
+        <v>3985231.670426452</v>
+      </c>
+      <c r="I168">
+        <v>1115086.338717012</v>
+      </c>
+      <c r="J168">
+        <v>4842880.270665526</v>
+      </c>
+      <c r="K168">
+        <v>3986175.799712536</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116579.802973406</v>
+      </c>
+      <c r="G169">
+        <v>4841135.13983274</v>
+      </c>
+      <c r="H169">
+        <v>3985231.670426452</v>
+      </c>
+      <c r="I169">
+        <v>1115121.45023447</v>
+      </c>
+      <c r="J169">
+        <v>4842831.619101832</v>
+      </c>
+      <c r="K169">
+        <v>3986373.554932119</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>18</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116531.122352997</v>
+      </c>
+      <c r="G170">
+        <v>4841151.652631701</v>
+      </c>
+      <c r="H170">
+        <v>3985430.925000324</v>
+      </c>
+      <c r="I170">
+        <v>1115157.426340745</v>
+      </c>
+      <c r="J170">
+        <v>4842782.967538137</v>
+      </c>
+      <c r="K170">
+        <v>3986556.161502284</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>18</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116502.52493059</v>
+      </c>
+      <c r="G171">
+        <v>4841168.165430664</v>
+      </c>
+      <c r="H171">
+        <v>3985549.611214788</v>
+      </c>
+      <c r="I171">
+        <v>1115194.288325539</v>
+      </c>
+      <c r="J171">
+        <v>4842734.315974442</v>
+      </c>
+      <c r="K171">
+        <v>3986723.61942303</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" t="s">
+        <v>18</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116484.472139554</v>
+      </c>
+      <c r="G172">
+        <v>4841184.678229626</v>
+      </c>
+      <c r="H172">
+        <v>3985634.428230571</v>
+      </c>
+      <c r="I172">
+        <v>1115232.058002796</v>
+      </c>
+      <c r="J172">
+        <v>4842685.664410748</v>
+      </c>
+      <c r="K172">
+        <v>3986875.928694358</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116471.882196366</v>
+      </c>
+      <c r="G173">
+        <v>4841201.191028588</v>
+      </c>
+      <c r="H173">
+        <v>3985700.47519532</v>
+      </c>
+      <c r="I173">
+        <v>1115270.757723608</v>
+      </c>
+      <c r="J173">
+        <v>4842637.012847053</v>
+      </c>
+      <c r="K173">
+        <v>3987013.089316268</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116462.489721722</v>
+      </c>
+      <c r="G174">
+        <v>4841217.703827551</v>
+      </c>
+      <c r="H174">
+        <v>3985754.57278252</v>
+      </c>
+      <c r="I174">
+        <v>1115310.410389442</v>
+      </c>
+      <c r="J174">
+        <v>4842588.361283358</v>
+      </c>
+      <c r="K174">
+        <v>3987135.101288761</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116455.14611817</v>
+      </c>
+      <c r="G175">
+        <v>4841234.216626512</v>
+      </c>
+      <c r="H175">
+        <v>3985800.389489945</v>
+      </c>
+      <c r="I175">
+        <v>1115351.039465693</v>
+      </c>
+      <c r="J175">
+        <v>4842539.709719663</v>
+      </c>
+      <c r="K175">
+        <v>3987241.964611835</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>4</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116449.204608192</v>
+      </c>
+      <c r="G176">
+        <v>4841250.729425475</v>
+      </c>
+      <c r="H176">
+        <v>3985840.127139171</v>
+      </c>
+      <c r="I176">
+        <v>1115392.668995568</v>
+      </c>
+      <c r="J176">
+        <v>4842491.058155969</v>
+      </c>
+      <c r="K176">
+        <v>3987333.67928549</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116444.271037831</v>
+      </c>
+      <c r="G177">
+        <v>4841267.242224437</v>
+      </c>
+      <c r="H177">
+        <v>3985875.211551249</v>
+      </c>
+      <c r="I177">
+        <v>1115435.323614317</v>
+      </c>
+      <c r="J177">
+        <v>4842442.406592274</v>
+      </c>
+      <c r="K177">
+        <v>3987410.245309729</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>4</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116440.090208155</v>
+      </c>
+      <c r="G178">
+        <v>4841283.755023398</v>
+      </c>
+      <c r="H178">
+        <v>3985906.619160057</v>
+      </c>
+      <c r="I178">
+        <v>1115479.028563812</v>
+      </c>
+      <c r="J178">
+        <v>4842393.75502858</v>
+      </c>
+      <c r="K178">
+        <v>3987471.662684549</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" t="s">
+        <v>18</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116436.488831273</v>
+      </c>
+      <c r="G179">
+        <v>4841300.267822362</v>
+      </c>
+      <c r="H179">
+        <v>3985935.048034262</v>
+      </c>
+      <c r="I179">
+        <v>1115523.809707481</v>
+      </c>
+      <c r="J179">
+        <v>4842345.103464885</v>
+      </c>
+      <c r="K179">
+        <v>3987517.93140995</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>4</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" t="s">
+        <v>18</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116433.344643165</v>
+      </c>
+      <c r="G180">
+        <v>4841316.780621324</v>
+      </c>
+      <c r="H180">
+        <v>3985961.014564781</v>
+      </c>
+      <c r="I180">
+        <v>1115569.693545614</v>
+      </c>
+      <c r="J180">
+        <v>4842296.45190119</v>
+      </c>
+      <c r="K180">
+        <v>3987549.051485934</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>4</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" t="s">
+        <v>18</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116430.568622238</v>
+      </c>
+      <c r="G181">
+        <v>4841333.293420285</v>
+      </c>
+      <c r="H181">
+        <v>3985984.911506705</v>
+      </c>
+      <c r="I181">
+        <v>1115616.707231049</v>
+      </c>
+      <c r="J181">
+        <v>4842247.800337496</v>
+      </c>
+      <c r="K181">
+        <v>3987565.0229125</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" t="s">
+        <v>18</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116428.094224524</v>
+      </c>
+      <c r="G182">
+        <v>4841349.806219248</v>
+      </c>
+      <c r="H182">
+        <v>3986007.044547094</v>
+      </c>
+      <c r="I182">
+        <v>1115664.878585236</v>
+      </c>
+      <c r="J182">
+        <v>4842199.148773802</v>
+      </c>
+      <c r="K182">
+        <v>3987565.845689647</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>4</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>18</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116425.870587399</v>
+      </c>
+      <c r="G183">
+        <v>4841366.31901821</v>
+      </c>
+      <c r="H183">
+        <v>3986027.656279091</v>
+      </c>
+      <c r="I183">
+        <v>1115714.236114703</v>
+      </c>
+      <c r="J183">
+        <v>4842150.497210106</v>
+      </c>
+      <c r="K183">
+        <v>3987551.519817376</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116423.858083652</v>
+      </c>
+      <c r="G184">
+        <v>4841382.831817172</v>
+      </c>
+      <c r="H184">
+        <v>3986046.942453272</v>
+      </c>
+      <c r="I184">
+        <v>1115764.809027925</v>
+      </c>
+      <c r="J184">
+        <v>4842101.845646411</v>
+      </c>
+      <c r="K184">
+        <v>3987522.045295688</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116422.025323213</v>
+      </c>
+      <c r="G185">
+        <v>4841399.344616135</v>
+      </c>
+      <c r="H185">
+        <v>3986065.063311646</v>
+      </c>
+      <c r="I185">
+        <v>1115816.627252609</v>
+      </c>
+      <c r="J185">
+        <v>4842053.194082717</v>
+      </c>
+      <c r="K185">
+        <v>3987477.422124581</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" t="s">
+        <v>18</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116420.347077136</v>
+      </c>
+      <c r="G186">
+        <v>4841415.857415096</v>
+      </c>
+      <c r="H186">
+        <v>3986082.151688354</v>
+      </c>
+      <c r="I186">
+        <v>1115869.721453404</v>
+      </c>
+      <c r="J186">
+        <v>4842004.542519022</v>
+      </c>
+      <c r="K186">
+        <v>3987417.650304056</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>4</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" t="s">
+        <v>18</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116418.802806628</v>
+      </c>
+      <c r="G187">
+        <v>4841432.370214059</v>
+      </c>
+      <c r="H187">
+        <v>3986098.318924434</v>
+      </c>
+      <c r="I187">
+        <v>1115924.123050048</v>
+      </c>
+      <c r="J187">
+        <v>4841955.890955327</v>
+      </c>
+      <c r="K187">
+        <v>3987342.729834113</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>4</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116417.375599368</v>
+      </c>
+      <c r="G188">
+        <v>4841448.883013021</v>
+      </c>
+      <c r="H188">
+        <v>3986113.659268376</v>
+      </c>
+      <c r="I188">
+        <v>1115979.86423596</v>
+      </c>
+      <c r="J188">
+        <v>4841907.239391633</v>
+      </c>
+      <c r="K188">
+        <v>3987252.660714753</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>4</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116416.051386323</v>
+      </c>
+      <c r="G189">
+        <v>4841465.395811982</v>
+      </c>
+      <c r="H189">
+        <v>3986128.253205091</v>
+      </c>
+      <c r="I189">
+        <v>1116036.977997295</v>
+      </c>
+      <c r="J189">
+        <v>4841858.587827939</v>
+      </c>
+      <c r="K189">
+        <v>3987147.442945973</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>4</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116414.818355696</v>
+      </c>
+      <c r="G190">
+        <v>4841481.908610946</v>
+      </c>
+      <c r="H190">
+        <v>3986142.170011917</v>
+      </c>
+      <c r="I190">
+        <v>1116095.498132459</v>
+      </c>
+      <c r="J190">
+        <v>4841809.936264243</v>
+      </c>
+      <c r="K190">
+        <v>3987027.076527776</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>4</v>
+      </c>
+      <c r="B191" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" t="s">
+        <v>18</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116413.666507962</v>
+      </c>
+      <c r="G191">
+        <v>4841498.421409908</v>
+      </c>
+      <c r="H191">
+        <v>3986155.469747525</v>
+      </c>
+      <c r="I191">
+        <v>1116155.459272114</v>
+      </c>
+      <c r="J191">
+        <v>4841761.284700549</v>
+      </c>
+      <c r="K191">
+        <v>3986891.561460161</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>4</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>18</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116412.587313568</v>
+      </c>
+      <c r="G192">
+        <v>4841514.934208869</v>
+      </c>
+      <c r="H192">
+        <v>3986168.204818308</v>
+      </c>
+      <c r="I192">
+        <v>1116216.896899669</v>
+      </c>
+      <c r="J192">
+        <v>4841712.633136855</v>
+      </c>
+      <c r="K192">
+        <v>3986740.897743128</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>4</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116411.573446417</v>
+      </c>
+      <c r="G193">
+        <v>4841531.447007832</v>
+      </c>
+      <c r="H193">
+        <v>3986180.421225594</v>
+      </c>
+      <c r="I193">
+        <v>1116279.847372282</v>
+      </c>
+      <c r="J193">
+        <v>4841663.98157316</v>
+      </c>
+      <c r="K193">
+        <v>3986575.085376676</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>4</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" t="s">
+        <v>18</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116410.618574116</v>
+      </c>
+      <c r="G194">
+        <v>4841547.959806793</v>
+      </c>
+      <c r="H194">
+        <v>3986192.15956868</v>
+      </c>
+      <c r="I194">
+        <v>1116344.347942369</v>
+      </c>
+      <c r="J194">
+        <v>4841615.330009464</v>
+      </c>
+      <c r="K194">
+        <v>3986394.124360807</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>4</v>
+      </c>
+      <c r="B195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116409.717191208</v>
+      </c>
+      <c r="G195">
+        <v>4841564.472605756</v>
+      </c>
+      <c r="H195">
+        <v>3986203.455858895</v>
+      </c>
+      <c r="I195">
+        <v>1116410.436779655</v>
+      </c>
+      <c r="J195">
+        <v>4841566.67844577</v>
+      </c>
+      <c r="K195">
+        <v>3986198.01469552</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>4</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" t="s">
+        <v>18</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116408.86448538</v>
+      </c>
+      <c r="G196">
+        <v>4841580.985404719</v>
+      </c>
+      <c r="H196">
+        <v>3986214.342185863</v>
+      </c>
+      <c r="I196">
+        <v>1116478.152993758</v>
+      </c>
+      <c r="J196">
+        <v>4841518.026882076</v>
+      </c>
+      <c r="K196">
+        <v>3985986.756380814</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="B197" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" t="s">
+        <v>18</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116408.056229191</v>
+      </c>
+      <c r="G197">
+        <v>4841597.49820368</v>
+      </c>
+      <c r="H197">
+        <v>3986224.847267063</v>
+      </c>
+      <c r="I197">
+        <v>1116547.536657337</v>
+      </c>
+      <c r="J197">
+        <v>4841469.375318381</v>
+      </c>
+      <c r="K197">
+        <v>3985760.34941669</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>4</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" t="s">
+        <v>18</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116407.288691779</v>
+      </c>
+      <c r="G198">
+        <v>4841614.011002643</v>
+      </c>
+      <c r="H198">
+        <v>3986234.996904362</v>
+      </c>
+      <c r="I198">
+        <v>1116618.628829799</v>
+      </c>
+      <c r="J198">
+        <v>4841420.723754686</v>
+      </c>
+      <c r="K198">
+        <v>3985518.793803148</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>4</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116406.558566318</v>
+      </c>
+      <c r="G199">
+        <v>4841630.523801605</v>
+      </c>
+      <c r="H199">
+        <v>3986244.814365813</v>
+      </c>
+      <c r="I199">
+        <v>1116691.471581604</v>
+      </c>
+      <c r="J199">
+        <v>4841372.072190992</v>
+      </c>
+      <c r="K199">
+        <v>3985262.089540188</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>4</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116405.862910022</v>
+      </c>
+      <c r="G200">
+        <v>4841647.036600566</v>
+      </c>
+      <c r="H200">
+        <v>3986254.320706937</v>
+      </c>
+      <c r="I200">
+        <v>1116766.108019158</v>
+      </c>
+      <c r="J200">
+        <v>4841323.420627297</v>
+      </c>
+      <c r="K200">
+        <v>3984990.23662781</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>4</v>
+      </c>
+      <c r="B201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>18</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116405.199094204</v>
+      </c>
+      <c r="G201">
+        <v>4841663.54939953</v>
+      </c>
+      <c r="H201">
+        <v>3986263.535042647</v>
+      </c>
+      <c r="I201">
+        <v>1116842.582310323</v>
+      </c>
+      <c r="J201">
+        <v>4841274.769063603</v>
+      </c>
+      <c r="K201">
+        <v>3984703.235066014</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>4</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116404.564762455</v>
+      </c>
+      <c r="G202">
+        <v>4841680.062198492</v>
+      </c>
+      <c r="H202">
+        <v>3986272.474778628</v>
+      </c>
+      <c r="I202">
+        <v>1116920.939710553</v>
+      </c>
+      <c r="J202">
+        <v>4841226.117499908</v>
+      </c>
+      <c r="K202">
+        <v>3984401.0848548</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>18</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116403.957795438</v>
+      </c>
+      <c r="G203">
+        <v>4841696.574997453</v>
+      </c>
+      <c r="H203">
+        <v>3986281.155809238</v>
+      </c>
+      <c r="I203">
+        <v>1117001.226589676</v>
+      </c>
+      <c r="J203">
+        <v>4841177.465936213</v>
+      </c>
+      <c r="K203">
+        <v>3984083.785994167</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" t="s">
+        <v>18</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116403.376281083</v>
+      </c>
+      <c r="G204">
+        <v>4841713.087796416</v>
+      </c>
+      <c r="H204">
+        <v>3986289.592687569</v>
+      </c>
+      <c r="I204">
+        <v>1117083.490459335</v>
+      </c>
+      <c r="J204">
+        <v>4841128.814372518</v>
+      </c>
+      <c r="K204">
+        <v>3983751.338484118</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" t="s">
+        <v>18</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116402.818489241</v>
+      </c>
+      <c r="G205">
+        <v>4841729.600595377</v>
+      </c>
+      <c r="H205">
+        <v>3986297.79877224</v>
+      </c>
+      <c r="I205">
+        <v>1117167.780001103</v>
+      </c>
+      <c r="J205">
+        <v>4841080.162808823</v>
+      </c>
+      <c r="K205">
+        <v>3983403.742324649</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" t="s">
+        <v>18</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116402.282850021</v>
+      </c>
+      <c r="G206">
+        <v>4841746.113394341</v>
+      </c>
+      <c r="H206">
+        <v>3986305.786354638</v>
+      </c>
+      <c r="I206">
+        <v>1117254.145095291</v>
+      </c>
+      <c r="J206">
+        <v>4841031.511245129</v>
+      </c>
+      <c r="K206">
+        <v>3983040.997515763</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>4</v>
+      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" t="s">
+        <v>18</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116401.767935203</v>
+      </c>
+      <c r="G207">
+        <v>4841762.626193303</v>
+      </c>
+      <c r="H207">
+        <v>3986313.566769661</v>
+      </c>
+      <c r="I207">
+        <v>1117342.63685047</v>
+      </c>
+      <c r="J207">
+        <v>4840982.859681434</v>
+      </c>
+      <c r="K207">
+        <v>3982663.104057458</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>4</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" t="s">
+        <v>18</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116401.272442214</v>
+      </c>
+      <c r="G208">
+        <v>4841779.138992264</v>
+      </c>
+      <c r="H208">
+        <v>3986321.150492457</v>
+      </c>
+      <c r="I208">
+        <v>1117433.307633709</v>
+      </c>
+      <c r="J208">
+        <v>4840934.20811774</v>
+      </c>
+      <c r="K208">
+        <v>3982270.061949736</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" t="s">
+        <v>18</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116400.79518027</v>
+      </c>
+      <c r="G209">
+        <v>4841795.651791227</v>
+      </c>
+      <c r="H209">
+        <v>3986328.547223233</v>
+      </c>
+      <c r="I209">
+        <v>1117526.21110157</v>
+      </c>
+      <c r="J209">
+        <v>4840885.556554045</v>
+      </c>
+      <c r="K209">
+        <v>3981861.871192595</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>4</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116400.335058335</v>
+      </c>
+      <c r="G210">
+        <v>4841812.164590189</v>
+      </c>
+      <c r="H210">
+        <v>3986335.765961856</v>
+      </c>
+      <c r="I210">
+        <v>1117621.402231858</v>
+      </c>
+      <c r="J210">
+        <v>4840836.90499035</v>
+      </c>
+      <c r="K210">
+        <v>3981438.531786036</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>4</v>
+      </c>
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116399.891074633</v>
+      </c>
+      <c r="G211">
+        <v>4841828.67738915</v>
+      </c>
+      <c r="H211">
+        <v>3986342.815073691</v>
+      </c>
+      <c r="I211">
+        <v>1117718.937356154</v>
+      </c>
+      <c r="J211">
+        <v>4840788.253426656</v>
+      </c>
+      <c r="K211">
+        <v>3981000.043730059</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" t="s">
+        <v>18</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116399.462307472</v>
+      </c>
+      <c r="G212">
+        <v>4841845.190188114</v>
+      </c>
+      <c r="H212">
+        <v>3986349.70234788</v>
+      </c>
+      <c r="I212">
+        <v>1117818.874193155</v>
+      </c>
+      <c r="J212">
+        <v>4840739.601862961</v>
+      </c>
+      <c r="K212">
+        <v>3980546.407024664</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>4</v>
+      </c>
+      <c r="B213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" t="s">
+        <v>18</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116399.047907202</v>
+      </c>
+      <c r="G213">
+        <v>4841861.702987076</v>
+      </c>
+      <c r="H213">
+        <v>3986356.435049077</v>
+      </c>
+      <c r="I213">
+        <v>1117921.271882828</v>
+      </c>
+      <c r="J213">
+        <v>4840690.950299266</v>
+      </c>
+      <c r="K213">
+        <v>3980077.621669851</v>
       </c>
     </row>
   </sheetData>
